--- a/protected/commands/template/month_more_lirun.xlsx
+++ b/protected/commands/template/month_more_lirun.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="汇总" sheetId="12" r:id="rId1"/>
+    <sheet name="匯總" sheetId="12" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -28,7 +28,7 @@
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
-不含保证薪金的同事</t>
+不含保證薪金的同事</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
-不含保证薪金的同事</t>
+不含保證薪金的同事</t>
         </r>
       </text>
     </comment>
@@ -53,7 +53,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>这个是在20号的财务报表里面取得的</t>
+          <t>這個是在20號的財務報表裏面取得的</t>
         </r>
       </text>
     </comment>
@@ -65,7 +65,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>这个是在20号的财务报表里面取得的</t>
+          <t>這個是在20號的財務報表裏面取得的</t>
         </r>
       </text>
     </comment>
@@ -78,7 +78,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-税前工资+公司部份社保+公司部份工积金 </t>
+稅前工資+公司部份社保+公司部份工積金 </t>
         </r>
       </text>
     </comment>
@@ -91,7 +91,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-税前工资+公司部份社保+公司部份工积金 </t>
+稅前工資+公司部份社保+公司部份工積金 </t>
         </r>
       </text>
     </comment>
@@ -104,7 +104,7 @@
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
-只计算IA合同数量</t>
+只計算IA合同數量</t>
         </r>
       </text>
     </comment>
@@ -117,7 +117,7 @@
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
-只计算IA合同数量</t>
+只計算IA合同數量</t>
         </r>
       </text>
     </comment>
@@ -130,7 +130,7 @@
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
-新地区销售人少也要划分区域，以市场适合划分多少区域为准</t>
+新地區銷售人少也要劃分區域，以市場適合劃分多少區域為准</t>
         </r>
       </text>
     </comment>
@@ -143,7 +143,7 @@
             <charset val="134"/>
           </rPr>
           <t>SAMSUNG:
-新地区销售人少也要划分区域，以市场适合划分多少区域为准</t>
+新地區銷售人少也要劃分區域，以市場適合劃分多少區域為准</t>
         </r>
       </text>
     </comment>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="213">
   <si>
     <r>
       <rPr>
@@ -162,7 +162,7 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>地区表现标准月报表</t>
+      <t>地區表現標準月報表</t>
     </r>
     <r>
       <rPr>
@@ -172,20 +172,20 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>汇总</t>
-    </r>
-  </si>
-  <si>
-    <t>管理项目</t>
-  </si>
-  <si>
-    <t>定义</t>
-  </si>
-  <si>
-    <t>上月生意额</t>
-  </si>
-  <si>
-    <t>今月生意额</t>
+      <t>匯總</t>
+    </r>
+  </si>
+  <si>
+    <t>管理專案</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>上月生意額</t>
+  </si>
+  <si>
+    <t>今月生意額</t>
   </si>
   <si>
     <r>
@@ -206,7 +206,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
+      <t>額</t>
     </r>
   </si>
   <si>
@@ -228,7 +228,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
+      <t>額</t>
     </r>
   </si>
   <si>
@@ -250,7 +250,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>务年</t>
+      <t>務年</t>
     </r>
     <r>
       <rPr>
@@ -270,7 +270,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
+      <t>額</t>
     </r>
   </si>
   <si>
@@ -292,7 +292,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>务年</t>
+      <t>務年</t>
     </r>
     <r>
       <rPr>
@@ -312,7 +312,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
+      <t>額</t>
     </r>
   </si>
   <si>
@@ -334,7 +334,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>务年</t>
+      <t>務年</t>
     </r>
     <r>
       <rPr>
@@ -354,137 +354,137 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>额</t>
-    </r>
-  </si>
-  <si>
-    <t>上月新业务年生意额</t>
-  </si>
-  <si>
-    <t>今月新业务年生意额</t>
-  </si>
-  <si>
-    <t>今月IC+飘盈香+甲醛+厨房其他年生意额</t>
-  </si>
-  <si>
-    <t>去年今月新业务年生意额</t>
-  </si>
-  <si>
-    <t>去年今月IC+飘盈香+甲醛+厨房其他年生意额</t>
-  </si>
-  <si>
-    <t>今月餐饮年生意额</t>
-  </si>
-  <si>
-    <t>今月非餐饮年生意额</t>
-  </si>
-  <si>
-    <t>上月生意净增长 （年生意额）</t>
-  </si>
-  <si>
-    <t>新增服务年金额+更改服务年差额-終止服务年金额</t>
-  </si>
-  <si>
-    <t>今月生意净增长 （年生意额）</t>
-  </si>
-  <si>
-    <t>去年今月生意额净增长 （年生意额）</t>
-  </si>
-  <si>
-    <t>今月服务金额</t>
-  </si>
-  <si>
-    <t>今月停单月生意额</t>
-  </si>
-  <si>
-    <t>技术员当月平均生意额</t>
-  </si>
-  <si>
-    <t>当月最高技术员生意金额</t>
-  </si>
-  <si>
-    <t>问题客户（应收报表超过90天）总金额</t>
-  </si>
-  <si>
-    <t>在应收帐报表里面</t>
-  </si>
-  <si>
-    <t>今月收款额</t>
-  </si>
-  <si>
-    <t>今月材料订购金额</t>
+      <t>額</t>
+    </r>
+  </si>
+  <si>
+    <t>上月新業務年生意額</t>
+  </si>
+  <si>
+    <t>今月新業務年生意額</t>
+  </si>
+  <si>
+    <t>今月IC+飄盈香+甲醛+廚房其他年生意額</t>
+  </si>
+  <si>
+    <t>去年今月新業務年生意額</t>
+  </si>
+  <si>
+    <t>去年今月IC+飄盈香+甲醛+廚房其他年生意額</t>
+  </si>
+  <si>
+    <t>今月餐飲年生意額</t>
+  </si>
+  <si>
+    <t>今月非餐飲年生意額</t>
+  </si>
+  <si>
+    <t>上月生意淨增長 （年生意額）</t>
+  </si>
+  <si>
+    <t>新增服務年金額+更改服務年差額-終止服務年金額</t>
+  </si>
+  <si>
+    <t>今月生意淨增長 （年生意額）</t>
+  </si>
+  <si>
+    <t>去年今月生意額淨增長 （年生意額）</t>
+  </si>
+  <si>
+    <t>今月服務金額</t>
+  </si>
+  <si>
+    <t>今月停單月生意額</t>
+  </si>
+  <si>
+    <t>技術員當月平均生意額</t>
+  </si>
+  <si>
+    <t>當月最高技術員生意金額</t>
+  </si>
+  <si>
+    <t>問題客戶（應收報表超過90天）總金額</t>
+  </si>
+  <si>
+    <t>在應收帳報表裏面</t>
+  </si>
+  <si>
+    <t>今月收款額</t>
+  </si>
+  <si>
+    <t>今月材料訂購金額</t>
   </si>
   <si>
     <t>IA+IB成本</t>
   </si>
   <si>
-    <t>技术员今月领货金额（IA）</t>
+    <t>技術員今月領貨金額（IA）</t>
   </si>
   <si>
     <t>IA成本</t>
   </si>
   <si>
-    <t>技术员今月领货金额（IB）</t>
+    <t>技術員今月領貨金額（IB）</t>
   </si>
   <si>
     <t>IB成本</t>
   </si>
   <si>
-    <t>今月技术员总工资</t>
-  </si>
-  <si>
-    <t>财务报表技术员总工资里面</t>
-  </si>
-  <si>
-    <t>今月工资总金额</t>
-  </si>
-  <si>
-    <t>财务报表总工资里面</t>
+    <t>今月技術員總工資</t>
+  </si>
+  <si>
+    <t>財務報表技術員總工資裏面</t>
+  </si>
+  <si>
+    <t>今月工資總金額</t>
+  </si>
+  <si>
+    <t>財務報表總工資裏面</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>上月底公司累计结余</t>
-  </si>
-  <si>
-    <t>上月新（IA，IB）服务合同数目</t>
-  </si>
-  <si>
-    <t>今月新（IA，IB）服务合同数目</t>
-  </si>
-  <si>
-    <t>今月新IA服务合同数目</t>
-  </si>
-  <si>
-    <t>今月新IA需安装服务合同数目</t>
-  </si>
-  <si>
-    <t>去年今月新（IA，IB）服务合同数目</t>
-  </si>
-  <si>
-    <t>锦旗今月数目</t>
-  </si>
-  <si>
-    <t>襟章获颁技术员数目</t>
-  </si>
-  <si>
-    <t>襟章发放数目</t>
-  </si>
-  <si>
-    <t>上月客诉数目</t>
-  </si>
-  <si>
-    <t>今月客诉数目</t>
-  </si>
-  <si>
-    <t>当月解决客诉数目</t>
-  </si>
-  <si>
-    <t>日报表里面当月的数目</t>
-  </si>
-  <si>
-    <t>2天内解决客诉数目</t>
+    <t>上月底公司累計結餘</t>
+  </si>
+  <si>
+    <t>上月新（IA，IB）服務合同數目</t>
+  </si>
+  <si>
+    <t>今月新（IA，IB）服務合同數目</t>
+  </si>
+  <si>
+    <t>今月新IA服務合同數目</t>
+  </si>
+  <si>
+    <t>今月新IA需安裝服務合同數目</t>
+  </si>
+  <si>
+    <t>去年今月新（IA，IB）服務合同數目</t>
+  </si>
+  <si>
+    <t>錦旗今月數目</t>
+  </si>
+  <si>
+    <t>襟章獲頒技術員數目</t>
+  </si>
+  <si>
+    <t>襟章發放數目</t>
+  </si>
+  <si>
+    <t>上月客訴數目</t>
+  </si>
+  <si>
+    <t>今月客訴數目</t>
+  </si>
+  <si>
+    <t>當月解決客訴數目</t>
+  </si>
+  <si>
+    <t>日報表裏面當月的數目</t>
+  </si>
+  <si>
+    <t>2天內解決客訴數目</t>
   </si>
   <si>
     <r>
@@ -505,7 +505,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>诉</t>
+      <t>訴</t>
     </r>
     <r>
       <rPr>
@@ -515,7 +515,7 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>后7天</t>
+      <t>後7天</t>
     </r>
     <r>
       <rPr>
@@ -525,7 +525,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>内电话</t>
+      <t>內電話</t>
     </r>
     <r>
       <rPr>
@@ -545,7 +545,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>户</t>
+      <t>戶</t>
     </r>
     <r>
       <rPr>
@@ -565,7 +565,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>访数</t>
+      <t>訪數</t>
     </r>
     <r>
       <rPr>
@@ -579,154 +579,703 @@
     </r>
   </si>
   <si>
-    <t>队长/组长跟客诉技术员面谈数目</t>
-  </si>
-  <si>
-    <t>问题客户需要队长/组长跟进数目</t>
-  </si>
-  <si>
-    <t>今月质检客户数量</t>
-  </si>
-  <si>
-    <t>低于70分质检客户数量</t>
-  </si>
-  <si>
-    <t>质检拜访平均分数最高同事</t>
-  </si>
-  <si>
-    <t>5天成功安装机器合同数目</t>
-  </si>
-  <si>
-    <t>7天成功安排首次合同数目</t>
-  </si>
-  <si>
-    <t>车辆数目</t>
-  </si>
-  <si>
-    <t>今月平均每部车用油金额</t>
-  </si>
-  <si>
-    <t>今月应送皂液（桶）</t>
-  </si>
-  <si>
-    <t>今月实际送皂液（桶）</t>
-  </si>
-  <si>
-    <t>今月应送纸品（箱）</t>
-  </si>
-  <si>
-    <t>今月实际送纸品（箱）</t>
-  </si>
-  <si>
-    <t>上月盘点准确度
-（实际货品量/储存电脑数量）%</t>
-  </si>
-  <si>
-    <t>超过一个月没有签署劳动合同同事数目（张）</t>
-  </si>
-  <si>
-    <t>今月销售离职人数（工作满一个月）数目</t>
-  </si>
-  <si>
-    <t>今月技术员离职人数（工作满一个月）数目</t>
-  </si>
-  <si>
-    <t>今月办公室离职人数（工作满一个月）数目</t>
-  </si>
-  <si>
-    <t>技术员今月整体人员数目</t>
-  </si>
-  <si>
-    <t>现有队长数目</t>
-  </si>
-  <si>
-    <t>现有组长数目</t>
-  </si>
-  <si>
-    <t>今月销售人员数目</t>
-  </si>
-  <si>
-    <t>今月办公室人员数目</t>
-  </si>
-  <si>
-    <t>销售划分区域</t>
-  </si>
-  <si>
-    <t>销售公共区域</t>
-  </si>
-  <si>
-    <t>上月利润额</t>
-  </si>
-  <si>
-    <t>今月利润额</t>
-  </si>
-  <si>
-    <t>去年今月利润额</t>
-  </si>
-  <si>
-    <t>总分</t>
-  </si>
-  <si>
-    <t>销售部</t>
-  </si>
-  <si>
-    <t>新生意情况</t>
-  </si>
-  <si>
-    <t>新(IA,IB)新服务年生意额增长 （(当月-上月)/上月)</t>
+    <t>隊長/組長跟客訴技術員面談數目</t>
+  </si>
+  <si>
+    <t>問題客戶需要隊長/組長跟進數目</t>
+  </si>
+  <si>
+    <t>今月質檢客戶數量</t>
+  </si>
+  <si>
+    <t>低於70分質檢客戶數量</t>
+  </si>
+  <si>
+    <t>質檢拜訪平均分數最高同事</t>
+  </si>
+  <si>
+    <t>5天成功安裝機器合同數目</t>
+  </si>
+  <si>
+    <t>7天成功安排首次合同數目</t>
+  </si>
+  <si>
+    <t>車輛數目</t>
+  </si>
+  <si>
+    <t>今月平均每部車用油金額</t>
+  </si>
+  <si>
+    <t>今月應送皂液（桶）</t>
+  </si>
+  <si>
+    <t>今月實際送皂液（桶）</t>
+  </si>
+  <si>
+    <t>今月應送紙品（箱）</t>
+  </si>
+  <si>
+    <t>今月實際送紙品（箱）</t>
+  </si>
+  <si>
+    <t>上月盤點準確度
+（實際貨品量/儲存電腦數量）%</t>
+  </si>
+  <si>
+    <t>超過一個月沒有簽署勞動合同同事數目（張）</t>
+  </si>
+  <si>
+    <t>今月銷售離職人數（工作滿一個月）數目</t>
+  </si>
+  <si>
+    <t>今月技術員離職人數（工作滿一個月）數目</t>
+  </si>
+  <si>
+    <t>今月辦公室離職人數（工作滿一個月）數目</t>
+  </si>
+  <si>
+    <t>技術員今月整體人員數目</t>
+  </si>
+  <si>
+    <t>現有隊長數目</t>
+  </si>
+  <si>
+    <t>現有組長數目</t>
+  </si>
+  <si>
+    <t>今月銷售人員數目</t>
+  </si>
+  <si>
+    <t>今月辦公室人員數目</t>
+  </si>
+  <si>
+    <t>銷售劃分區域</t>
+  </si>
+  <si>
+    <t>銷售公共區域</t>
+  </si>
+  <si>
+    <t>上月利潤額</t>
+  </si>
+  <si>
+    <t>今月利潤額</t>
+  </si>
+  <si>
+    <t>去年今月利潤額</t>
+  </si>
+  <si>
+    <t>總分</t>
+  </si>
+  <si>
+    <t>銷售部</t>
+  </si>
+  <si>
+    <t>新生意情況</t>
+  </si>
+  <si>
+    <t>新(IA,IB)新服務年生意額增長 （(當月-上月)/上月)</t>
   </si>
   <si>
     <t>2(5)</t>
   </si>
   <si>
-    <t>-20% - -10%     :  1
--10% - 0%   :  2
-0% - 10%   :  3
-10% - 20%   :  4
-&gt; 20% :  5</t>
-  </si>
-  <si>
-    <t>新(IA,IB)服务年生意额同比增长 （(当月-去年当月）/去年当月)</t>
+    <t>-15% ~ -30% : 1
+&lt;0% ~ -14% : 2
+&gt;=0% ~ 8%  : 3
+9% ~ 14%  : 4
+&gt; =15%  : 5</t>
+  </si>
+  <si>
+    <t>新(IA,IB)服務年生意額同比增長 （(當月-去年當月）/去年當月)</t>
   </si>
   <si>
     <t>20%(3)</t>
   </si>
   <si>
-    <t>新增(IA,IB)生意合同数目增长（(当月-上月)/上月)</t>
-  </si>
-  <si>
-    <t>-40% - -20%     :  1
--20% - 0%   :  2
-0% - 20%   :  3
-20% - 40%   :  4
-&gt; 40% :  5</t>
-  </si>
-  <si>
-    <t>新(IA,IB)生意合同数目同比增长（(当月-去年当月)/去年当月)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新业务(飘盈香，甲醛，厨房或其他)新年生意金额增长（(当月-上月)/上月)
+    <t>-15% ~ -30% : 1
+&lt;0% ~ -14% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt; =15% : 5</t>
+  </si>
+  <si>
+    <t>新增(IA,IB)生意合同數目增長（(當月-上月)/上月)</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+4% ~ -9% : 2
+5% ~ 19% : 3
+20% ~ 29% : 4
+&gt; =30% : 5</t>
+  </si>
+  <si>
+    <t>新(IA,IB)生意合同數目同比增長（(當月-去年當月)/去年當月)</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+0% ~ -9% : 2
+10% ~ 19% : 3
+20% ~ 29% : 4
+&gt; =30% : 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新業務(飄盈香，甲醛，廚房或其他)新年生意金額增長（(當月-上月)/上月)
 </t>
   </si>
   <si>
-    <t>-200% - -100%     :  1
--100% - 0% : 2
-0% - 100% :3
-100% - 300%   :  4
-&gt; 300% :  5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新兴业务(飘盈香，甲醛，厨房或其他)新年生意金额同比增长 （(当月-去年当月)/去年当月)
+    <t>-100% ~ -200% : 1
+&lt;0% ~ -99% : 2
+&gt;=0% ~ 99% : 3
+100% ~ 149% : 4
+&gt;= 150% : 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新興業務(飄盈香，甲醛，廚房或其他)新年生意金額同比增長 （(當月-去年當月)/去年當月)
 </t>
   </si>
   <si>
-    <t>公司年生意额净增长比例（（当月-上月）/上月）</t>
-  </si>
-  <si>
-    <t>公司年生意额净增长同比比例（（当月-去年当月）/去年当月）</t>
-  </si>
-  <si>
-    <t>生意结构比例</t>
+    <t>公司年生意額淨增長比例（（當月-上月）/上月）</t>
+  </si>
+  <si>
+    <t>-10% ~ -20% : 1
+&lt;0% ~ -9% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt;= 15% : 5</t>
+  </si>
+  <si>
+    <t>公司年生意額淨增長同比比例（（當月-去年當月）/去年當月）</t>
+  </si>
+  <si>
+    <t>-16% ~ -30% : 1
+&lt;0% ~ -15% : 2
+&gt;=0% ~ 8% : 3
+9% ~ 14% : 4
+&gt;= 15% : 5</t>
+  </si>
+  <si>
+    <t>生意結構比例</t>
+  </si>
+  <si>
+    <t>餐飲非餐飲新生意年生意額比例
+20% - 40%           （2：8和3：7之間）
+40% - 70%         （3：7和4：6之間）
+70% - 100%       （4：6和 5：5之間）
+100% - 150%    （5：5 和 6：4之間）
+150% - 230%    （6 ： 4 和 7：3之間）
+&gt;230%                 （7：3以上）</t>
+  </si>
+  <si>
+    <t>20% ~ 39% : 1
+40% ~ 69% : 2
+70% ~ 99% : 4
+100% ~ 149% : 5
+150% ~ 229% : 3
+&gt;= 230% : 1</t>
+  </si>
+  <si>
+    <t>當月IA, IB年生意額比例
+20% - 40%           （2：8和3：7之間）
+40% - 70%         （3：7和4：6之間）
+70% - 100%       （4：6和 5：5之間）
+100% - 150%    （5：5 和 6：4之間）
+150% - 230%    （6 ： 4 和 7：3之間）
+&gt;230%                 （7：3以上）</t>
+  </si>
+  <si>
+    <t>5% ~ 19% : 1
+20% ~ 39% : 2
+40% ~ 59% : 4
+60% ~ 79% : 5
+80% ~ 99% : 3
+&gt;= 100% : 1</t>
+  </si>
+  <si>
+    <t>停單情況</t>
+  </si>
+  <si>
+    <t>停單金額占生意比例% （當月停單總月金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>0% ~ 0.8% : 5
+0.9% ~ 1.9% : 4
+2.0% ~ 2.8% : 3
+2.9% ~ 3.8% : 2
+&gt;= 3.9% : 1</t>
+  </si>
+  <si>
+    <t>外勤部</t>
+  </si>
+  <si>
+    <t>技術員生產力</t>
+  </si>
+  <si>
+    <t>上月技術員平均生意額超出標準門欄比例 （標準：30000/月， 當地平均技術員生意額 - 標準生意額 / 標準生意額 ），主管/主任級別以下技術員</t>
+  </si>
+  <si>
+    <t>&gt;=20% : 5
+0% ~ 19% : 4
+-9% ~ -1% : 3
+-19% ~ -10% : 2
+-29% ~ -20% : 1
+&lt; -30% : 0</t>
+  </si>
+  <si>
+    <t>上月技術員最高生意額技術員金額跟標準比較  （標準：30000/月)</t>
+  </si>
+  <si>
+    <t>35%(4)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;=70% : 5
+30% - 69% : 4
+10% - 29%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>上月技術員最高生意額技術員金額</t>
+  </si>
+  <si>
+    <t>僅供參考，不計算分數</t>
+  </si>
+  <si>
+    <t>技術員成本</t>
+  </si>
+  <si>
+    <t>技術員用料比例 清潔（技術員IA領貨金額/當月IA生意額）</t>
+  </si>
+  <si>
+    <t>23%(2)</t>
+  </si>
+  <si>
+    <t>&lt;=10% : 5
+11% ~ 15% : 4
+16% ~ 20% : 3
+21% ~ 25% : 2
+26% ~ 30% : 1
+&gt;31% : 0</t>
+  </si>
+  <si>
+    <t>技術員用料比例 滅蟲（技術員IB領貨金額/當月IB生意額）</t>
+  </si>
+  <si>
+    <t>15%(2)</t>
+  </si>
+  <si>
+    <t>&lt;=5% : 5
+6% ~ 10% : 4
+11% ~ 15% : 3
+16% ~ 20% : 2
+21% ~ 25% : 1
+&gt;26% : 0</t>
+  </si>
+  <si>
+    <t>獲獎情況</t>
+  </si>
+  <si>
+    <t>當月錦旗獲獎數目占整體技術員比例 （錦旗數目/整體技術員數目）</t>
+  </si>
+  <si>
+    <t>12%(3)</t>
+  </si>
+  <si>
+    <t>&gt;20% : 5
+10% ~ 19% : 3
+1% ~ 9% : 1
+&lt;=0% : 0</t>
+  </si>
+  <si>
+    <t>當月襟章頒發明細 （P:N) P為受頒技術員數目，N為襟章發放數目</t>
+  </si>
+  <si>
+    <t>財務部</t>
+  </si>
+  <si>
+    <t>財政狀況</t>
+  </si>
+  <si>
+    <t>IA,IB毛利率 （當月IA,IB生意額 - 材料訂購 - 技術員工資）/當月IA,IB生意額</t>
+  </si>
+  <si>
+    <t>35%(1)</t>
+  </si>
+  <si>
+    <t>&gt;=55% : 5
+50% ~ 54% : 4
+45% ~ 49% : 3
+40% ~ 44% : 2
+36% ~ 39% : 1
+&lt;=35% : 0</t>
+  </si>
+  <si>
+    <t>工資占生意額比例</t>
+  </si>
+  <si>
+    <t>28%(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20% ~ 24% : 5
+25% ~ 34% : 4
+35% ~ 39% : 3
+40% ~ 49% : 2
+&gt;50% : 1
+</t>
+  </si>
+  <si>
+    <t>利潤狀況</t>
+  </si>
+  <si>
+    <t>純利率</t>
+  </si>
+  <si>
+    <t>&lt;4% : 1
+5% ~ 9% : 2
+10%~14% : 3
+15%~19% : 4
+&gt;=20% : 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>純利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟上月橫比增長</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;=1% : 1
+&gt;=1.5% : 2
+&gt;=2% : 3
+&gt;=2.5% : 4
+&gt;=3% : 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>純利跟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去年同比增長</t>
+    </r>
+  </si>
+  <si>
+    <t>0~7% : 1
+8%~16% : 2
+17%~25% : 3
+26%~34% : 4
+&gt;35% : 5</t>
+  </si>
+  <si>
+    <t>收款情況</t>
+  </si>
+  <si>
+    <t>收款效率（當月收款額/上月生意額）</t>
+  </si>
+  <si>
+    <t>92%(3)</t>
+  </si>
+  <si>
+    <t>&gt; =100% : 5
+95% ~ 99% : 4
+90% ~ 94% : 3
+85% ~ 89% : 2
+80% ~ 84% : 1</t>
+  </si>
+  <si>
+    <t>公司累積結餘（到每月最後一天止）</t>
+  </si>
+  <si>
+    <t>應收未收帳情況</t>
+  </si>
+  <si>
+    <t>問題客人（超過90天沒有結款）比例
+(問題客戶總月費金額/當月生意額）</t>
+  </si>
+  <si>
+    <t>50%(3)</t>
+  </si>
+  <si>
+    <t>&lt;= 30% : 5
+31% ~ 40% : 4
+41% ~ 50% :3
+51% ~ 60% : 2
+61% ~ 70% : 1</t>
+  </si>
+  <si>
+    <t>營運部</t>
+  </si>
+  <si>
+    <t>整體情況</t>
+  </si>
+  <si>
+    <t>新合同7天內安排首次比例 （成功7天首次客戶數目/整體當月新IA,IB合同數目）</t>
+  </si>
+  <si>
+    <t>88%(3)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">95% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+90% ~ 94% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+85% ~ 89% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+80% ~ 84% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+75% ~ 79% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;75% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>物流情況</t>
+  </si>
+  <si>
+    <t>運送皂液準確度 （實際送皂液/應送皂液）</t>
+  </si>
+  <si>
+    <t>99%(5)</t>
+  </si>
+  <si>
+    <t>運送銷售貨品準確度 （實際送銷售貨品/應送銷售貨品）</t>
+  </si>
+  <si>
+    <t>85%(3)</t>
+  </si>
+  <si>
+    <t>汽車支出平均 （C:M)
+ C : 車輛數目，M：車的平均用油量</t>
+  </si>
+  <si>
+    <t>倉庫情況</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每月盤點準確度
+</t>
+  </si>
+  <si>
+    <t>96%(5)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&gt;=108% : 0
+104% ~ 107% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+101% ~103% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+96% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+92% ~ 95% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+88% ~ 91% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
   </si>
   <si>
     <r>
@@ -736,7 +1285,16 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>餐饮非餐饮</t>
+      <t>新合同5天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>內</t>
     </r>
     <r>
       <rPr>
@@ -745,83 +1303,17 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>新生意年生意额比例
-20% - 40%           （2：8和3：7之间）
-40% - 70%         （3：7和4：6之间）
-70% - 100%       （4：6和 5：5之间）
-100% - 150%    （5：5 和 6：4之间）
-150% - 230%    （6 ： 4 和 7：3之间）
-&gt;230%                 （7：3以上）</t>
-    </r>
-  </si>
-  <si>
-    <t>20% - 40%     :  1
-40% - 70%   :  2
-70% - 100%   :  4
-100% - 150%   :  5
-150% - 230% : 3
-&gt; 230% :  1</t>
-  </si>
-  <si>
-    <t>当月IA, IB年生意额比例
-20% - 40%           （2：8和3：7之间）
-40% - 70%         （3：7和4：6之间）
-70% - 100%       （4：6和 5：5之间）
-100% - 150%    （5：5 和 6：4之间）
-150% - 230%    （6 ： 4 和 7：3之间）
-&gt;230%                 （7：3以上）</t>
-  </si>
-  <si>
-    <t>停单情况</t>
-  </si>
-  <si>
-    <t>停单金额占生意比例% （当月停单总月金额/当月生意额）</t>
-  </si>
-  <si>
-    <t>0% - 0.8% : 5
-0.8% - 1.6% : 4
-1.6% - 2.4% : 3
-2.4% - 3.2% : 2
-X &gt; 3.2% : 1</t>
-  </si>
-  <si>
-    <t>外勤部</t>
-  </si>
-  <si>
-    <t>技术员生产力</t>
-  </si>
-  <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
-  </si>
-  <si>
-    <t>&gt;20% : 5
-0% - 10% : 4
--10% - 0% : 3
--20% - -10% : 2
-'-30% - -20% : 1
-&lt; -30% : 0</t>
-  </si>
-  <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
-  </si>
-  <si>
-    <t>35%(4)</t>
-  </si>
-  <si>
-    <t>&gt;70% : 5
-30% - 70% : 4
-10% - 30% ： 3</t>
-  </si>
-  <si>
-    <t>上月技术员最高生意额技术员金额</t>
-  </si>
-  <si>
-    <t>仅供参考，不计算分数</t>
-  </si>
-  <si>
-    <t>技术员成本</t>
-  </si>
-  <si>
+      <t>安排安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裝</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -829,7 +1321,16 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>技术员用料比例 清洁（技术员</t>
+      <t>比例 （成功5天安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裝</t>
     </r>
     <r>
       <rPr>
@@ -838,235 +1339,17 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>IA领货金额/当月IA生意额）</t>
-    </r>
-  </si>
-  <si>
-    <t>23%(2)</t>
-  </si>
-  <si>
-    <t>&lt;10% : 5
-10% - 15% : 4
-15% - 20% : 3
-20% - 25% : 2
-25% - 30% : 1
-&gt;30% : 0</t>
-  </si>
-  <si>
-    <t>技术员用料比例 灭虫（技术员IB领货金额/当月IB生意额）</t>
-  </si>
-  <si>
-    <t>15%(2)</t>
-  </si>
-  <si>
-    <t>&lt;5% : 5
-5% - 10% : 4
-10% - 15% : 3
-15% - 20% : 2
-20% - 25% : 1
-&gt;25% : 0</t>
-  </si>
-  <si>
-    <t>获奖情况</t>
-  </si>
-  <si>
-    <t>当月锦旗获奖数目占整体技术员比例 （锦旗数目/整体技术员数目）</t>
-  </si>
-  <si>
-    <t>12%(3)</t>
-  </si>
-  <si>
-    <t>&gt;20% : 5
-10% - 20% : 3
-5% - 10% : 1
-&lt;=0% : 0</t>
-  </si>
-  <si>
-    <t>当月襟章颁发明细 （P:N) P为受颁技术员数目，N为襟章发放数目</t>
-  </si>
-  <si>
-    <t>财务部</t>
-  </si>
-  <si>
-    <t>财政状况</t>
-  </si>
-  <si>
-    <t>IA,IB毛利率 （当月IA,IB生意额 - 材料订购 - 技术员工资）/当月IA,IB生意额</t>
-  </si>
-  <si>
-    <t>35%(1)</t>
-  </si>
-  <si>
-    <t>&gt;55% : 5
-50% - 55% : 4
-45% - 50%% : 3
-40% - 45% : 2
-35% - 40% : 1
-&lt;35% : 0</t>
-  </si>
-  <si>
-    <t>工资占生意额比例</t>
-  </si>
-  <si>
-    <t>28%(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% - 25% : 5
-25% - 28% : 4
-28% - 30% : 3
-30% - 35% : 2
-&gt;35% : 1
-</t>
-  </si>
-  <si>
-    <t>利润状况</t>
-  </si>
-  <si>
-    <t>纯利率</t>
-  </si>
-  <si>
-    <t>&lt;5% : 1                                                5%-10% : 2                                          11%-15% : 3                                      16%-20% : 4                                     &gt;20% : 5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纯利</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>跟上月横比增长</t>
-    </r>
-  </si>
-  <si>
-    <t>&gt;=1% : 1                                       &gt;=1.5% : 2                                          &gt;=2% : 3                                         &gt;=2.5% : 4                                        &gt;=3% : 5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纯利跟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>去年同比增长</t>
-    </r>
-  </si>
-  <si>
-    <t>0-8% : 1                                                 8%-16% : 2                                         17%-25% : 3                                        26%-34% : 4                                      &gt;34% : 5</t>
-  </si>
-  <si>
-    <t>收款情况</t>
-  </si>
-  <si>
-    <t>收款效率（当月收款额/上月生意额）</t>
-  </si>
-  <si>
-    <t>92%(3)</t>
-  </si>
-  <si>
-    <t>&gt; 100% : 5
-95% - 100% : 4
-90% - 95% : 3
-85% - 90% : 2
-80% - 85% : 1</t>
-  </si>
-  <si>
-    <t>公司累积结余（到每月最后一天止）</t>
-  </si>
-  <si>
-    <t>应收未收帐情况</t>
-  </si>
-  <si>
-    <t>问题客人（超过90天没有结款）比例
-(问题客户总月费金额/当月生意额）</t>
-  </si>
-  <si>
-    <t>50%(3)</t>
-  </si>
-  <si>
-    <t>&lt;= 30% : 5
-30% - 40% : 4
-40% - 50% :３
-50% - 60% : 2
-60% - 70% : 1</t>
-  </si>
-  <si>
-    <t>营运部</t>
-  </si>
-  <si>
-    <t>整体情况</t>
-  </si>
-  <si>
-    <t>新合同7天内安排首次比例 （成功7天首次客户数目/整体当月新IA,IB合同数目）</t>
-  </si>
-  <si>
-    <t>88%(3)</t>
-  </si>
-  <si>
-    <t>95% - 100% ： 5
-90% - 95% ： 4
-85% - 90% ： 3
-80% - 85% ： 2
-75% - 80% ： 1
-&lt;75% : 0</t>
-  </si>
-  <si>
-    <t>物流情况</t>
-  </si>
-  <si>
-    <t>运送皂液准确度 （实际送皂液/应送皂液）</t>
-  </si>
-  <si>
-    <t>99%(5)</t>
-  </si>
-  <si>
-    <t>运送销售货品准确度 （实际送销售货品/应送销售货品）</t>
-  </si>
-  <si>
-    <t>85%(3)</t>
-  </si>
-  <si>
-    <t>汽车支出平均 （C:M)
- C : 车辆数目，M：车的平均用油量</t>
-  </si>
-  <si>
-    <t>仓库情况</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每月盘点准确度
-</t>
-  </si>
-  <si>
-    <t>96%(5)</t>
-  </si>
-  <si>
-    <t>&gt;108% : 0
-104% - 108% ： 1
-100% -104% ： 3
-96% - 100% ： 5
-92% - 96% ： 3
-88% - 92% ： 1</t>
-  </si>
-  <si>
+      <t>戶數</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1074,7 +1357,359 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>新合同5天</t>
+      <t>目/今月新IA需安裝服務合同數目）</t>
+    </r>
+  </si>
+  <si>
+    <t>80%(2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">96% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+91% ~ 95% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+86% ~ 90% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+81% ~ 85% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+76% ~ 80% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;= 75% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>質檢情況</t>
+  </si>
+  <si>
+    <t>當月質檢客戶數量效率 （跟標準每月客戶拜訪數目比較）
+（估計客戶每個約￥1500/月，當地服務客戶金額/客戶金額估值=客戶約數量，客戶約數量除6（希望每12個月拜訪客戶一次），等於標準每月客戶拜訪數目）</t>
+  </si>
+  <si>
+    <t>33%(2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;=90% : 5
+70% ~ 89% :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">４
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50% ~ 69% : 3
+30% ~ 49% : 2
+10% ~ 29% : 1
+&lt;9% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>質檢問題客戶數量比例 
+（問題客戶 ： 質檢拜訪客戶分數低於70分。問題客戶/當月質檢拜訪客戶 = 質檢問題客戶數量比例）</t>
+  </si>
+  <si>
+    <t>12%(5)</t>
+  </si>
+  <si>
+    <t>&gt;20% : 3
+10% ~ 19% : 5
+0% ~ 9% : 1</t>
+  </si>
+  <si>
+    <t>表現滿意技術員 (質檢拜訪表平均分數最高同事）</t>
+  </si>
+  <si>
+    <t>劉秀航</t>
+  </si>
+  <si>
+    <t>客訴處理</t>
+  </si>
+  <si>
+    <t>當月客訴數目比較（當月客訴數目 - 上月客訴數目 / 上月客訴數目）</t>
+  </si>
+  <si>
+    <t>4%（1）</t>
+  </si>
+  <si>
+    <t>&lt; -15% : 5
+-10% ~ -14% : 4
+-5% ~ -9% : 3
+-1% ~ -4% : 2
+5% ~ 0% : 1
+&gt;=6% : 0</t>
+  </si>
+  <si>
+    <t>客訴解決效率（高效客訴數目 = 2工作天內處理完成客訴數量）
+（客訴解決效率 = 高效客訴解決數目/當月客訴數目）</t>
+  </si>
+  <si>
+    <t>54%(0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">95% ~ 100% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+90% ~ 94% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4
+85% ~ 89% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+80% ~ 84% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+75% ~ 79% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;74% : 0</t>
+    </r>
+  </si>
+  <si>
+    <t>隊長跟投訴技術員面談比例 
+（隊長/組長面談客訴技術員數目/客訴數目）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8% ~10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5
+6% ~ 7% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+4% ~ 5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+&lt;3% : 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效回</t>
     </r>
     <r>
       <rPr>
@@ -1083,7 +1718,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>内</t>
+      <t>訪</t>
     </r>
     <r>
       <rPr>
@@ -1092,7 +1727,7 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>安排安</t>
+      <t>率 （高效回</t>
     </r>
     <r>
       <rPr>
@@ -1101,7 +1736,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>装</t>
+      <t>訪</t>
     </r>
     <r>
       <rPr>
@@ -1110,7 +1745,7 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>比例 （成功5天安</t>
+      <t xml:space="preserve"> = 客</t>
     </r>
     <r>
       <rPr>
@@ -1119,7 +1754,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>装</t>
+      <t>訴</t>
     </r>
     <r>
       <rPr>
@@ -1128,7 +1763,7 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>客</t>
+      <t>後7天</t>
     </r>
     <r>
       <rPr>
@@ -1137,7 +1772,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>户数</t>
+      <t>內電話</t>
     </r>
     <r>
       <rPr>
@@ -1146,91 +1781,17 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>目/今月新IA需安装服务合同数目）</t>
-    </r>
-  </si>
-  <si>
-    <t>80%(2)</t>
-  </si>
-  <si>
-    <t>95% - 100% ： 5
-90% - 95% ： 4
-85% - 90% ： 3
-80% - 85% ： 2
-75% - 80% ： 1
-&lt;= 75% : 0</t>
-  </si>
-  <si>
-    <t>质检情况</t>
-  </si>
-  <si>
-    <t>当月质检客户数量效率 （跟标准每月客户拜访数目比较）
-（估计客户每个约￥1500/月，当地服务客户金额/客户金额估值=客户约数量，客户约数量除6（希望每12个月拜访客户一次），等于标准每月客户拜访数目）</t>
-  </si>
-  <si>
-    <t>33%(2)</t>
-  </si>
-  <si>
-    <t>&gt;90% : 5
-70% - 90% :４
-50% - 70% : 3
-30% - 50% : 2
-10% - 30% : 1
-&lt;= 10% : 0</t>
-  </si>
-  <si>
-    <t>质检问题客户数量比例 
-（问题客户 ： 质检拜访客户分数低于70分。问题客户/当月质检拜访客户 = 质检问题客户数量比例）</t>
-  </si>
-  <si>
-    <t>12%(5)</t>
-  </si>
-  <si>
-    <t>&gt;20% : 3
-10% - 20% : 5
-0% - 10% : 1</t>
-  </si>
-  <si>
-    <t>表现满意技术员 (质检拜访表平均分数最高同事）</t>
-  </si>
-  <si>
-    <t>刘秀航</t>
-  </si>
-  <si>
-    <t>客诉处理</t>
-  </si>
-  <si>
-    <t>当月客诉数目比较（当月客诉数目 - 上月客诉数目 / 上月客诉数目）</t>
-  </si>
-  <si>
-    <t>4%（1）</t>
-  </si>
-  <si>
-    <t>&lt;-30% : 5
--30% - -20% : 4
--20% - -10% : 3
--10% - 0% : 2
-0% - 5% : 1
-&gt;5% : 0</t>
-  </si>
-  <si>
-    <t>客诉解决效率（高效客诉数目 = 2工作天内处理完成客诉数量）
-（客诉解决效率 = 高效客诉解决数目/当月客诉数目）</t>
-  </si>
-  <si>
-    <t>54%(0)</t>
-  </si>
-  <si>
-    <t>队长跟投诉技术员面谈比例 
-（队长/组长面谈客诉技术员数目/客诉数目）</t>
-  </si>
-  <si>
-    <t>15% - 20% ： 5
-10% - 15% ： 3
-5% - 10% ： 1
-&lt;5% : 0</t>
-  </si>
-  <si>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>戶</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1238,7 +1799,7 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>高效回</t>
+      <t>回</t>
     </r>
     <r>
       <rPr>
@@ -1247,7 +1808,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>访</t>
+      <t>訪數</t>
     </r>
     <r>
       <rPr>
@@ -1256,7 +1817,8 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>率 （高效回</t>
+      <t>目）
+（高效回</t>
     </r>
     <r>
       <rPr>
@@ -1265,7 +1827,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>访</t>
+      <t>訪</t>
     </r>
     <r>
       <rPr>
@@ -1274,7 +1836,7 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> = 客</t>
+      <t>率=高效回</t>
     </r>
     <r>
       <rPr>
@@ -1283,7 +1845,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>诉</t>
+      <t>訪</t>
     </r>
     <r>
       <rPr>
@@ -1292,7 +1854,7 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>后7天</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -1301,7 +1863,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>内电话</t>
+      <t>今月客訴數目</t>
     </r>
     <r>
       <rPr>
@@ -1310,97 +1872,6 @@
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目）
-（高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率=高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>访</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今月客诉数目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
       <t>）</t>
     </r>
   </si>
@@ -1408,76 +1879,81 @@
     <t>人事部</t>
   </si>
   <si>
-    <t>所有同事劳动合同进展 (超过一个月没有签署劳动合同同事数目（张））</t>
+    <t>所有同事勞動合同進展 (超過一個月沒有簽署勞動合同同事數目（張））</t>
   </si>
   <si>
     <t>2（4）</t>
   </si>
   <si>
     <t>0 : 5
-1 - 3 : 4
-3 - 5 : 3
-&gt;5 : 0</t>
-  </si>
-  <si>
-    <t>销售人员情况</t>
-  </si>
-  <si>
-    <t>销售人员流失率 （工作满一个月的）（离职销售人员/当月所有销售人员）</t>
-  </si>
-  <si>
-    <t>0% - 10% : 5
-10% - 20% : 3
-20% - 30% : 1
-&gt;30% : 0</t>
-  </si>
-  <si>
-    <t>销售区域空置率（公共区域/销售划分区域）</t>
+1 ~ 3 : 4
+4 ~ 5 : 3
+&gt;6 : 0</t>
+  </si>
+  <si>
+    <t>銷售人員情況</t>
+  </si>
+  <si>
+    <t>銷售人員流失率 （工作滿一個月的）（離職銷售人員/當月所有銷售人員）</t>
+  </si>
+  <si>
+    <t>0% ~ 10% : 5
+11% ~ 20% : 3
+21% ~ 30% : 1
+&gt;31% : 0</t>
+  </si>
+  <si>
+    <t>銷售區域空置率（公共區域/銷售劃分區域）</t>
   </si>
   <si>
     <t>30%（3）</t>
   </si>
   <si>
-    <t>0% - 20%     :  5
-20% - 60%   :  3
-60%  - 100% :  1</t>
-  </si>
-  <si>
-    <t>外勤人员情况</t>
-  </si>
-  <si>
-    <t>离职技术员（工作满一个月的）人数% （当月离职技术人员/整体外勤技术人员）</t>
+    <t>0% ~ 20%     :  5
+21% ~ 60%   :  3
+61%  ~ 100% :  1</t>
+  </si>
+  <si>
+    <t>外勤人員情況</t>
+  </si>
+  <si>
+    <t>離職技術員（工作滿一個月的）人數% （當月離職技術人員/整體外勤技術人員）</t>
   </si>
   <si>
     <t>8%（3）</t>
   </si>
   <si>
-    <t>0% - 5% : 5
-5% - 10% : 3
-10% - 15% : 1
-&gt;15% : 0</t>
-  </si>
-  <si>
-    <t>队长数目跟标准比例 （最多每5个技术员，就要有一个队长的设置) 
-(技术员数目/6=标准队长数目， 比例 = 队长数目/标准队长数目）</t>
-  </si>
-  <si>
-    <t>&gt;100% : 5
-80% - 100% : 3
+    <t>0% ~ 5% : 5
+6% ~ 10% : 3
+11% ~ 15% : 1
+&gt;16% : 0</t>
+  </si>
+  <si>
+    <t>隊長數目跟標準比例 （最多每5個技術員，就要有一個隊長的設置) 
+(技術員數目/6=標準隊長數目， 比例 = 隊長數目/標準隊長數目）</t>
+  </si>
+  <si>
+    <t>&gt;=100% : 5
+81% ~ 99% : 3
 &lt;= 80% : 1</t>
   </si>
   <si>
-    <t>组长数目跟标准比例 （最多每30个技术员，就要有一个组长的设置) 
-(技术员数目/30=标准组长数目， 比例 = 组长数目/标准数目）</t>
-  </si>
-  <si>
-    <t>新招技术员人数</t>
-  </si>
-  <si>
-    <t>办公室人员情况</t>
-  </si>
-  <si>
-    <t>离职办公室（工作满一个月的）人数% （当月离职办公室人员/整体办公室人员）</t>
+    <t>組長數目跟標準比例 （最多每30個技術員，就要有一個組長的設置) 
+(技術員數目/30=標準組長數目， 比例 = 組長數目/標準數目）</t>
+  </si>
+  <si>
+    <t>&gt;=100% : 5
+81% ~ 100% : 3
+&lt;= 80% : 1</t>
+  </si>
+  <si>
+    <t>新招技術員人數</t>
+  </si>
+  <si>
+    <t>辦公室人員情況</t>
+  </si>
+  <si>
+    <t>離職辦公室（工作滿一個月的）人數% （當月離職辦公室人員/整體辦公室人員）</t>
   </si>
 </sst>
 </file>
@@ -1487,12 +1963,12 @@
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="45">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1558,11 +2034,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="新細明體"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1574,6 +2077,102 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1593,24 +2192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1633,88 +2217,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1732,19 +2248,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1817,7 +2320,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,109 +2446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1949,7 +2476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,13 +2500,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,91 +2548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,6 +2573,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,6 +2684,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2192,15 +2745,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2240,52 +2784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2318,236 +2821,236 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2566,10 +3069,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1">
@@ -2581,7 +3084,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2593,10 +3096,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2608,13 +3111,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2626,16 +3129,16 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2644,7 +3147,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2659,38 +3162,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2698,22 +3210,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2722,11 +3237,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2734,41 +3249,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2776,23 +3294,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2800,17 +3324,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="10" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2818,8 +3342,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2827,35 +3354,29 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -2865,10 +3386,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2900,26 +3421,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3294,14 +3815,14 @@
   <sheetPr/>
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.6333333333333" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.7583333333333" style="6" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="7" customWidth="1"/>
     <col min="5" max="256" width="9" style="8"/>
@@ -3958,7 +4479,7 @@
       </c>
       <c r="D79" s="20"/>
     </row>
-    <row r="80" s="2" customFormat="1" ht="82.5" spans="1:4">
+    <row r="80" s="2" customFormat="1" ht="75" spans="1:5">
       <c r="A80" s="35" t="s">
         <v>84</v>
       </c>
@@ -3968,11 +4489,12 @@
       <c r="C80" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="101" t="s">
+      <c r="D80" s="108" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="E80" s="39"/>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="75" spans="1:5">
       <c r="A81" s="35"/>
       <c r="B81" s="36" t="s">
         <v>88</v>
@@ -3980,1272 +4502,1323 @@
       <c r="C81" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="101" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D81" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="39"/>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="75" spans="1:5">
       <c r="A82" s="35"/>
-      <c r="B82" s="39" t="s">
-        <v>90</v>
+      <c r="B82" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="102" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D82" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="39"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="75" spans="1:5">
       <c r="A83" s="35"/>
-      <c r="B83" s="39" t="s">
-        <v>92</v>
+      <c r="B83" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D83" s="102" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D83" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="39"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="75" spans="1:5">
       <c r="A84" s="35"/>
-      <c r="B84" s="39" t="s">
-        <v>93</v>
+      <c r="B84" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D84" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="39"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="75" spans="1:5">
       <c r="A85" s="35"/>
-      <c r="B85" s="39" t="s">
-        <v>95</v>
+      <c r="B85" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D85" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="39"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="75" spans="1:5">
       <c r="A86" s="35"/>
-      <c r="B86" s="39" t="s">
-        <v>96</v>
+      <c r="B86" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="C86" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="101" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="82.5" spans="1:4">
+      <c r="D86" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="39"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="75" spans="1:5">
       <c r="A87" s="35"/>
-      <c r="B87" s="39" t="s">
-        <v>97</v>
+      <c r="B87" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="101" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="115.5" spans="1:4">
+      <c r="D87" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="39"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="115.5" spans="1:5">
       <c r="A88" s="41" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D88" s="40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="115.5" spans="1:4">
+      <c r="D88" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="44"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="115.5" spans="1:5">
       <c r="A89" s="41"/>
       <c r="B89" s="42" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A90" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B90" s="39" t="s">
-        <v>103</v>
+      <c r="D89" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E89" s="39"/>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="75" spans="1:5">
+      <c r="A90" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="C90" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D90" s="40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A91" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="45"/>
-      <c r="C91" s="46">
+      <c r="D90" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="39"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A91" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="47"/>
+      <c r="C91" s="48">
         <v>12</v>
       </c>
-      <c r="D91" s="47"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A92" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="50" t="s">
+      <c r="D91" s="49"/>
+      <c r="E91" s="50"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="90" spans="1:5">
+      <c r="A92" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D92" s="51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="49.5" spans="1:4">
-      <c r="A93" s="48"/>
-      <c r="B93" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="33" spans="1:4">
-      <c r="A94" s="48"/>
-      <c r="B94" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="52" t="str">
+      <c r="D92" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92" s="39"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="46.5" spans="1:5">
+      <c r="A93" s="51"/>
+      <c r="B93" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93" s="44"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="33" spans="1:5">
+      <c r="A94" s="51"/>
+      <c r="B94" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="55" t="str">
         <f>B21</f>
-        <v>当月最高技术员生意金额</v>
-      </c>
-      <c r="D94" s="51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A95" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D95" s="51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A96" s="48"/>
-      <c r="B96" s="49" t="s">
+        <v>當月最高技術員生意金額</v>
+      </c>
+      <c r="D94" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C96" s="50" t="s">
+      <c r="E94" s="44"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="90" spans="1:5">
+      <c r="A95" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D96" s="51" t="s">
+      <c r="B95" s="52" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A97" s="48" t="s">
+      <c r="C95" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="D95" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="54" t="s">
+      <c r="E95" s="39"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="90" spans="1:5">
+      <c r="A96" s="51"/>
+      <c r="B96" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="55" t="s">
+      <c r="C96" s="53" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="33" spans="1:4">
-      <c r="A98" s="48"/>
-      <c r="B98" s="53" t="s">
+      <c r="D96" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="56">
+      <c r="E96" s="39"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="60" spans="1:5">
+      <c r="A97" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="44"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="33" spans="1:5">
+      <c r="A98" s="51"/>
+      <c r="B98" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="60">
         <v>0.216666666666667</v>
       </c>
-      <c r="D98" s="51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A99" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="59"/>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A100" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B100" s="61" t="s">
+      <c r="D98" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="44"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A99" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="61"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="50"/>
+    </row>
+    <row r="100" s="2" customFormat="1" ht="90" spans="1:5">
+      <c r="A100" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="39"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="90" spans="1:5">
+      <c r="A101" s="64"/>
+      <c r="B101" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="39"/>
+    </row>
+    <row r="102" s="2" customFormat="1" ht="101" customHeight="1" spans="1:5">
+      <c r="A102" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="66"/>
+      <c r="D102" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="39"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="75" spans="1:5">
+      <c r="A103" s="70"/>
+      <c r="B103" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="66"/>
+      <c r="D103" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103" s="44"/>
+    </row>
+    <row r="104" s="2" customFormat="1" ht="75" spans="1:5">
+      <c r="A104" s="72"/>
+      <c r="B104" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="66"/>
+      <c r="D104" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" s="39"/>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="75" spans="1:5">
+      <c r="A105" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E105" s="44"/>
+    </row>
+    <row r="106" s="2" customFormat="1" spans="1:5">
+      <c r="A106" s="64"/>
+      <c r="B106" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" s="73" t="str">
+        <f>B29</f>
+        <v>上月底公司累計結餘</v>
+      </c>
+      <c r="D106" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="44"/>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="75" spans="1:5">
+      <c r="A107" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="39"/>
+    </row>
+    <row r="108" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A108" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="47"/>
+      <c r="C108" s="77">
+        <v>11.73</v>
+      </c>
+      <c r="D108" s="78"/>
+      <c r="E108" s="50"/>
+    </row>
+    <row r="109" s="3" customFormat="1" ht="97.5" spans="1:5">
+      <c r="A109" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D109" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" s="44"/>
+    </row>
+    <row r="110" s="3" customFormat="1" ht="97.5" spans="1:5">
+      <c r="A110" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" s="44"/>
+    </row>
+    <row r="111" s="3" customFormat="1" ht="97.5" spans="1:5">
+      <c r="A111" s="79"/>
+      <c r="B111" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111" s="44"/>
+    </row>
+    <row r="112" s="3" customFormat="1" ht="33" spans="1:5">
+      <c r="A112" s="79"/>
+      <c r="B112" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="84">
+        <v>1.43055555555556</v>
+      </c>
+      <c r="D112" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" s="44"/>
+    </row>
+    <row r="113" s="3" customFormat="1" ht="97.5" spans="1:5">
+      <c r="A113" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="E113" s="44"/>
+    </row>
+    <row r="114" s="3" customFormat="1" ht="97.5" spans="1:5">
+      <c r="A114" s="79"/>
+      <c r="B114" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D114" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E114" s="39"/>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="99" spans="1:5">
+      <c r="A115" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D115" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="E115" s="39"/>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="66" spans="1:5">
+      <c r="A116" s="79"/>
+      <c r="B116" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C116" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E116" s="44"/>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="33" spans="1:5">
+      <c r="A117" s="79"/>
+      <c r="B117" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E117" s="44"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="90" spans="1:5">
+      <c r="A118" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C118" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="D118" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="E118" s="39"/>
+    </row>
+    <row r="119" s="2" customFormat="1" ht="97.5" spans="1:5">
+      <c r="A119" s="79"/>
+      <c r="B119" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D119" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E119" s="44"/>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="64.5" spans="1:5">
+      <c r="A120" s="79"/>
+      <c r="B120" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="D100" s="63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A101" s="60"/>
-      <c r="B101" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C101" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" s="2" customFormat="1" ht="101" customHeight="1" spans="1:4">
-      <c r="A102" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="B102" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C102" s="62"/>
-      <c r="D102" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A103" s="66"/>
-      <c r="B103" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C103" s="62"/>
-      <c r="D103" s="63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A104" s="68"/>
-      <c r="B104" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A105" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B105" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="D105" s="70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" s="2" customFormat="1" spans="1:4">
-      <c r="A106" s="60"/>
-      <c r="B106" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" s="69" t="str">
-        <f>B29</f>
-        <v>上月底公司累计结余</v>
-      </c>
-      <c r="D106" s="70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="107" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A107" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="B107" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C107" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="D107" s="63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A108" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="45"/>
-      <c r="C108" s="72">
-        <v>11.73</v>
-      </c>
-      <c r="D108" s="73"/>
-    </row>
-    <row r="109" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A109" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="B109" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C109" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A110" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="B110" s="75" t="s">
+      <c r="D120" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="E120" s="39"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="97.5" spans="1:5">
+      <c r="A121" s="79"/>
+      <c r="B121" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C121" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D121" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E121" s="44"/>
+    </row>
+    <row r="122" s="2" customFormat="1" spans="1:5">
+      <c r="A122" s="79"/>
+      <c r="B122" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="84">
+        <v>5</v>
+      </c>
+      <c r="D122" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="E122" s="44"/>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A123" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" s="47"/>
+      <c r="C123" s="77">
+        <v>34</v>
+      </c>
+      <c r="D123" s="78"/>
+      <c r="E123" s="50"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="60" spans="1:5">
+      <c r="A124" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="C110" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D110" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A111" s="74"/>
-      <c r="B111" s="75" t="s">
+      <c r="B124" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C124" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="D124" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="E124" s="39"/>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="60" spans="1:5">
+      <c r="A125" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" s="94" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" s="39"/>
+    </row>
+    <row r="126" s="2" customFormat="1" ht="45" spans="1:5">
+      <c r="A126" s="89"/>
+      <c r="B126" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="C126" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="D126" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="E126" s="44"/>
+    </row>
+    <row r="127" s="2" customFormat="1" ht="60" spans="1:5">
+      <c r="A127" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="D127" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="E127" s="39"/>
+    </row>
+    <row r="128" s="2" customFormat="1" ht="66" spans="1:5">
+      <c r="A128" s="95"/>
+      <c r="B128" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="C111" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="D111" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" s="3" customFormat="1" ht="33" spans="1:4">
-      <c r="A112" s="74"/>
-      <c r="B112" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="C112" s="79">
-        <v>1.43055555555556</v>
-      </c>
-      <c r="D112" s="80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A113" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="B113" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C113" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="D113" s="80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A114" s="74"/>
-      <c r="B114" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D114" s="77" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A115" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="B115" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="C115" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="D115" s="77" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A116" s="74"/>
-      <c r="B116" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="C116" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="D116" s="77" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="117" s="2" customFormat="1" ht="33" spans="1:4">
-      <c r="A117" s="74"/>
-      <c r="B117" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="C117" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="D117" s="77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A118" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="B118" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="C118" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="D118" s="77" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A119" s="74"/>
-      <c r="B119" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C119" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="D119" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A120" s="74"/>
-      <c r="B120" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="C120" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="D120" s="77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="121" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A121" s="74"/>
-      <c r="B121" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C121" s="76" t="s">
-        <v>153</v>
-      </c>
-      <c r="D121" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" s="2" customFormat="1" spans="1:4">
-      <c r="A122" s="74"/>
-      <c r="B122" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C122" s="79">
-        <v>5</v>
-      </c>
-      <c r="D122" s="80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="123" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A123" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="B123" s="45"/>
-      <c r="C123" s="72">
-        <v>34</v>
-      </c>
-      <c r="D123" s="73"/>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A124" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="B124" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="C124" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="D124" s="85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="125" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A125" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="B125" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="C125" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D125" s="87" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="126" s="2" customFormat="1" ht="49.5" spans="1:4">
-      <c r="A126" s="82"/>
-      <c r="B126" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="C126" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="D126" s="85" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="127" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A127" s="88" t="s">
-        <v>196</v>
-      </c>
-      <c r="B127" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="C127" s="90" t="s">
+      <c r="D128" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="E128" s="44"/>
+    </row>
+    <row r="129" s="2" customFormat="1" ht="66" spans="1:5">
+      <c r="A129" s="95"/>
+      <c r="B129" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C129" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="E129" s="44"/>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A130" s="95"/>
+      <c r="B130" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C130" s="91"/>
+      <c r="D130" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="E130" s="44"/>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="60" spans="1:5">
+      <c r="A131" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="B131" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="C131" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="D131" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="D127" s="87" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A128" s="88"/>
-      <c r="B128" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C128" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D128" s="87" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A129" s="88"/>
-      <c r="B129" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C129" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D129" s="87" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="130" s="2" customFormat="1" ht="20" customHeight="1" spans="1:4">
-      <c r="A130" s="88"/>
-      <c r="B130" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="C130" s="84"/>
-      <c r="D130" s="87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="131" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A131" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="B131" s="92" t="s">
-        <v>205</v>
-      </c>
-      <c r="C131" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="D131" s="94" t="s">
-        <v>192</v>
-      </c>
+      <c r="E131" s="39"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:4">
       <c r="A132" s="4"/>
-      <c r="B132" s="95"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="97"/>
+      <c r="B132" s="102"/>
+      <c r="C132" s="103"/>
+      <c r="D132" s="104"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:4">
       <c r="A133" s="4"/>
-      <c r="B133" s="95"/>
-      <c r="C133" s="96"/>
-      <c r="D133" s="97"/>
+      <c r="B133" s="102"/>
+      <c r="C133" s="103"/>
+      <c r="D133" s="104"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:4">
       <c r="A134" s="4"/>
-      <c r="B134" s="95"/>
-      <c r="C134" s="96"/>
-      <c r="D134" s="97"/>
+      <c r="B134" s="102"/>
+      <c r="C134" s="103"/>
+      <c r="D134" s="104"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:4">
       <c r="A135" s="4"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="96"/>
-      <c r="D135" s="97"/>
+      <c r="B135" s="102"/>
+      <c r="C135" s="103"/>
+      <c r="D135" s="104"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:4">
       <c r="A136" s="4"/>
-      <c r="B136" s="95"/>
-      <c r="C136" s="96"/>
-      <c r="D136" s="97"/>
+      <c r="B136" s="102"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="104"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:4">
       <c r="A137" s="4"/>
-      <c r="B137" s="95"/>
-      <c r="C137" s="96"/>
-      <c r="D137" s="97"/>
+      <c r="B137" s="102"/>
+      <c r="C137" s="103"/>
+      <c r="D137" s="104"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:4">
       <c r="A138" s="4"/>
-      <c r="B138" s="95"/>
-      <c r="C138" s="96"/>
-      <c r="D138" s="97"/>
+      <c r="B138" s="102"/>
+      <c r="C138" s="103"/>
+      <c r="D138" s="104"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:4">
       <c r="A139" s="4"/>
-      <c r="B139" s="95"/>
-      <c r="C139" s="96"/>
-      <c r="D139" s="97"/>
+      <c r="B139" s="102"/>
+      <c r="C139" s="103"/>
+      <c r="D139" s="104"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:4">
       <c r="A140" s="4"/>
-      <c r="B140" s="95"/>
-      <c r="C140" s="96"/>
-      <c r="D140" s="97"/>
+      <c r="B140" s="102"/>
+      <c r="C140" s="103"/>
+      <c r="D140" s="104"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:4">
       <c r="A141" s="4"/>
-      <c r="B141" s="95"/>
-      <c r="C141" s="96"/>
-      <c r="D141" s="97"/>
+      <c r="B141" s="102"/>
+      <c r="C141" s="103"/>
+      <c r="D141" s="104"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:4">
       <c r="A142" s="4"/>
-      <c r="B142" s="95"/>
-      <c r="C142" s="96"/>
-      <c r="D142" s="97"/>
+      <c r="B142" s="102"/>
+      <c r="C142" s="103"/>
+      <c r="D142" s="104"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:4">
       <c r="A143" s="4"/>
-      <c r="B143" s="95"/>
-      <c r="C143" s="96"/>
-      <c r="D143" s="97"/>
+      <c r="B143" s="102"/>
+      <c r="C143" s="103"/>
+      <c r="D143" s="104"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:4">
       <c r="A144" s="4"/>
-      <c r="B144" s="95"/>
-      <c r="C144" s="96"/>
-      <c r="D144" s="97"/>
+      <c r="B144" s="102"/>
+      <c r="C144" s="103"/>
+      <c r="D144" s="104"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:4">
       <c r="A145" s="4"/>
-      <c r="B145" s="95"/>
-      <c r="C145" s="96"/>
-      <c r="D145" s="97"/>
+      <c r="B145" s="102"/>
+      <c r="C145" s="103"/>
+      <c r="D145" s="104"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:4">
       <c r="A146" s="4"/>
-      <c r="B146" s="95"/>
-      <c r="C146" s="96"/>
-      <c r="D146" s="97"/>
+      <c r="B146" s="102"/>
+      <c r="C146" s="103"/>
+      <c r="D146" s="104"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:4">
       <c r="A147" s="4"/>
-      <c r="B147" s="95"/>
-      <c r="C147" s="96"/>
-      <c r="D147" s="97"/>
+      <c r="B147" s="102"/>
+      <c r="C147" s="103"/>
+      <c r="D147" s="104"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:4">
       <c r="A148" s="4"/>
-      <c r="B148" s="95"/>
-      <c r="C148" s="96"/>
-      <c r="D148" s="97"/>
+      <c r="B148" s="102"/>
+      <c r="C148" s="103"/>
+      <c r="D148" s="104"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:4">
       <c r="A149" s="4"/>
-      <c r="B149" s="95"/>
-      <c r="C149" s="96"/>
-      <c r="D149" s="97"/>
+      <c r="B149" s="102"/>
+      <c r="C149" s="103"/>
+      <c r="D149" s="104"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:4">
       <c r="A150" s="4"/>
-      <c r="B150" s="95"/>
-      <c r="C150" s="96"/>
-      <c r="D150" s="97"/>
+      <c r="B150" s="102"/>
+      <c r="C150" s="103"/>
+      <c r="D150" s="104"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:4">
       <c r="A151" s="4"/>
-      <c r="B151" s="95"/>
-      <c r="C151" s="96"/>
-      <c r="D151" s="97"/>
+      <c r="B151" s="102"/>
+      <c r="C151" s="103"/>
+      <c r="D151" s="104"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:4">
       <c r="A152" s="4"/>
-      <c r="B152" s="95"/>
-      <c r="C152" s="96"/>
-      <c r="D152" s="97"/>
+      <c r="B152" s="102"/>
+      <c r="C152" s="103"/>
+      <c r="D152" s="104"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:4">
       <c r="A153" s="4"/>
-      <c r="B153" s="95"/>
-      <c r="C153" s="96"/>
-      <c r="D153" s="97"/>
+      <c r="B153" s="102"/>
+      <c r="C153" s="103"/>
+      <c r="D153" s="104"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:4">
       <c r="A154" s="4"/>
-      <c r="B154" s="95"/>
-      <c r="C154" s="96"/>
-      <c r="D154" s="97"/>
+      <c r="B154" s="102"/>
+      <c r="C154" s="103"/>
+      <c r="D154" s="104"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:4">
       <c r="A155" s="4"/>
-      <c r="B155" s="95"/>
-      <c r="C155" s="96"/>
-      <c r="D155" s="97"/>
+      <c r="B155" s="102"/>
+      <c r="C155" s="103"/>
+      <c r="D155" s="104"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:4">
       <c r="A156" s="4"/>
-      <c r="B156" s="95"/>
-      <c r="C156" s="96"/>
-      <c r="D156" s="97"/>
+      <c r="B156" s="102"/>
+      <c r="C156" s="103"/>
+      <c r="D156" s="104"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:4">
       <c r="A157" s="4"/>
-      <c r="B157" s="95"/>
-      <c r="C157" s="96"/>
-      <c r="D157" s="97"/>
+      <c r="B157" s="102"/>
+      <c r="C157" s="103"/>
+      <c r="D157" s="104"/>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:4">
       <c r="A158" s="4"/>
-      <c r="B158" s="95"/>
-      <c r="C158" s="96"/>
-      <c r="D158" s="97"/>
+      <c r="B158" s="102"/>
+      <c r="C158" s="103"/>
+      <c r="D158" s="104"/>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:4">
       <c r="A159" s="4"/>
-      <c r="B159" s="95"/>
-      <c r="C159" s="96"/>
-      <c r="D159" s="97"/>
+      <c r="B159" s="102"/>
+      <c r="C159" s="103"/>
+      <c r="D159" s="104"/>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:4">
       <c r="A160" s="4"/>
-      <c r="B160" s="95"/>
-      <c r="C160" s="96"/>
-      <c r="D160" s="97"/>
+      <c r="B160" s="102"/>
+      <c r="C160" s="103"/>
+      <c r="D160" s="104"/>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:4">
       <c r="A161" s="4"/>
-      <c r="B161" s="95"/>
-      <c r="C161" s="96"/>
-      <c r="D161" s="97"/>
+      <c r="B161" s="102"/>
+      <c r="C161" s="103"/>
+      <c r="D161" s="104"/>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:4">
       <c r="A162" s="4"/>
-      <c r="B162" s="95"/>
-      <c r="C162" s="96"/>
-      <c r="D162" s="97"/>
+      <c r="B162" s="102"/>
+      <c r="C162" s="103"/>
+      <c r="D162" s="104"/>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:4">
       <c r="A163" s="4"/>
-      <c r="B163" s="95"/>
-      <c r="C163" s="96"/>
-      <c r="D163" s="97"/>
+      <c r="B163" s="102"/>
+      <c r="C163" s="103"/>
+      <c r="D163" s="104"/>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:4">
       <c r="A164" s="4"/>
-      <c r="B164" s="95"/>
-      <c r="C164" s="96"/>
-      <c r="D164" s="97"/>
+      <c r="B164" s="102"/>
+      <c r="C164" s="103"/>
+      <c r="D164" s="104"/>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="98"/>
-      <c r="C165" s="99"/>
-      <c r="D165" s="100"/>
+      <c r="B165" s="105"/>
+      <c r="C165" s="106"/>
+      <c r="D165" s="107"/>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="98"/>
-      <c r="C166" s="99"/>
-      <c r="D166" s="100"/>
+      <c r="B166" s="105"/>
+      <c r="C166" s="106"/>
+      <c r="D166" s="107"/>
     </row>
     <row r="167" spans="2:4">
-      <c r="B167" s="98"/>
-      <c r="C167" s="99"/>
-      <c r="D167" s="100"/>
+      <c r="B167" s="105"/>
+      <c r="C167" s="106"/>
+      <c r="D167" s="107"/>
     </row>
     <row r="168" spans="2:4">
-      <c r="B168" s="98"/>
-      <c r="C168" s="99"/>
-      <c r="D168" s="100"/>
+      <c r="B168" s="105"/>
+      <c r="C168" s="106"/>
+      <c r="D168" s="107"/>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="98"/>
-      <c r="C169" s="99"/>
-      <c r="D169" s="100"/>
+      <c r="B169" s="105"/>
+      <c r="C169" s="106"/>
+      <c r="D169" s="107"/>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="98"/>
-      <c r="C170" s="99"/>
-      <c r="D170" s="100"/>
+      <c r="B170" s="105"/>
+      <c r="C170" s="106"/>
+      <c r="D170" s="107"/>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="98"/>
-      <c r="C171" s="99"/>
-      <c r="D171" s="100"/>
+      <c r="B171" s="105"/>
+      <c r="C171" s="106"/>
+      <c r="D171" s="107"/>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="98"/>
-      <c r="C172" s="99"/>
-      <c r="D172" s="100"/>
+      <c r="B172" s="105"/>
+      <c r="C172" s="106"/>
+      <c r="D172" s="107"/>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="98"/>
-      <c r="C173" s="99"/>
-      <c r="D173" s="100"/>
+      <c r="B173" s="105"/>
+      <c r="C173" s="106"/>
+      <c r="D173" s="107"/>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="98"/>
-      <c r="C174" s="99"/>
-      <c r="D174" s="100"/>
+      <c r="B174" s="105"/>
+      <c r="C174" s="106"/>
+      <c r="D174" s="107"/>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="98"/>
-      <c r="C175" s="99"/>
-      <c r="D175" s="100"/>
+      <c r="B175" s="105"/>
+      <c r="C175" s="106"/>
+      <c r="D175" s="107"/>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="98"/>
-      <c r="C176" s="99"/>
-      <c r="D176" s="100"/>
+      <c r="B176" s="105"/>
+      <c r="C176" s="106"/>
+      <c r="D176" s="107"/>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="98"/>
-      <c r="C177" s="99"/>
-      <c r="D177" s="100"/>
+      <c r="B177" s="105"/>
+      <c r="C177" s="106"/>
+      <c r="D177" s="107"/>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="98"/>
-      <c r="C178" s="99"/>
-      <c r="D178" s="100"/>
+      <c r="B178" s="105"/>
+      <c r="C178" s="106"/>
+      <c r="D178" s="107"/>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="98"/>
-      <c r="C179" s="99"/>
-      <c r="D179" s="100"/>
+      <c r="B179" s="105"/>
+      <c r="C179" s="106"/>
+      <c r="D179" s="107"/>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="98"/>
-      <c r="C180" s="99"/>
-      <c r="D180" s="100"/>
+      <c r="B180" s="105"/>
+      <c r="C180" s="106"/>
+      <c r="D180" s="107"/>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="98"/>
-      <c r="C181" s="99"/>
-      <c r="D181" s="100"/>
+      <c r="B181" s="105"/>
+      <c r="C181" s="106"/>
+      <c r="D181" s="107"/>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="98"/>
-      <c r="C182" s="99"/>
-      <c r="D182" s="100"/>
+      <c r="B182" s="105"/>
+      <c r="C182" s="106"/>
+      <c r="D182" s="107"/>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="98"/>
-      <c r="C183" s="99"/>
-      <c r="D183" s="100"/>
+      <c r="B183" s="105"/>
+      <c r="C183" s="106"/>
+      <c r="D183" s="107"/>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="98"/>
-      <c r="C184" s="99"/>
-      <c r="D184" s="100"/>
+      <c r="B184" s="105"/>
+      <c r="C184" s="106"/>
+      <c r="D184" s="107"/>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="98"/>
-      <c r="C185" s="99"/>
-      <c r="D185" s="100"/>
+      <c r="B185" s="105"/>
+      <c r="C185" s="106"/>
+      <c r="D185" s="107"/>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="98"/>
-      <c r="C186" s="99"/>
-      <c r="D186" s="100"/>
+      <c r="B186" s="105"/>
+      <c r="C186" s="106"/>
+      <c r="D186" s="107"/>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="98"/>
-      <c r="C187" s="99"/>
-      <c r="D187" s="100"/>
+      <c r="B187" s="105"/>
+      <c r="C187" s="106"/>
+      <c r="D187" s="107"/>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="98"/>
-      <c r="C188" s="99"/>
-      <c r="D188" s="100"/>
+      <c r="B188" s="105"/>
+      <c r="C188" s="106"/>
+      <c r="D188" s="107"/>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="98"/>
-      <c r="C189" s="99"/>
-      <c r="D189" s="100"/>
+      <c r="B189" s="105"/>
+      <c r="C189" s="106"/>
+      <c r="D189" s="107"/>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="98"/>
-      <c r="C190" s="99"/>
-      <c r="D190" s="100"/>
+      <c r="B190" s="105"/>
+      <c r="C190" s="106"/>
+      <c r="D190" s="107"/>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="98"/>
-      <c r="C191" s="99"/>
-      <c r="D191" s="100"/>
+      <c r="B191" s="105"/>
+      <c r="C191" s="106"/>
+      <c r="D191" s="107"/>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="98"/>
-      <c r="C192" s="99"/>
-      <c r="D192" s="100"/>
+      <c r="B192" s="105"/>
+      <c r="C192" s="106"/>
+      <c r="D192" s="107"/>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="98"/>
-      <c r="C193" s="99"/>
-      <c r="D193" s="100"/>
+      <c r="B193" s="105"/>
+      <c r="C193" s="106"/>
+      <c r="D193" s="107"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="98"/>
-      <c r="C194" s="99"/>
-      <c r="D194" s="100"/>
+      <c r="B194" s="105"/>
+      <c r="C194" s="106"/>
+      <c r="D194" s="107"/>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="98"/>
-      <c r="C195" s="99"/>
-      <c r="D195" s="100"/>
+      <c r="B195" s="105"/>
+      <c r="C195" s="106"/>
+      <c r="D195" s="107"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="98"/>
-      <c r="C196" s="99"/>
-      <c r="D196" s="100"/>
+      <c r="B196" s="105"/>
+      <c r="C196" s="106"/>
+      <c r="D196" s="107"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="98"/>
-      <c r="C197" s="99"/>
-      <c r="D197" s="100"/>
+      <c r="B197" s="105"/>
+      <c r="C197" s="106"/>
+      <c r="D197" s="107"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="98"/>
-      <c r="C198" s="99"/>
-      <c r="D198" s="100"/>
+      <c r="B198" s="105"/>
+      <c r="C198" s="106"/>
+      <c r="D198" s="107"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="98"/>
-      <c r="C199" s="99"/>
-      <c r="D199" s="100"/>
+      <c r="B199" s="105"/>
+      <c r="C199" s="106"/>
+      <c r="D199" s="107"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="98"/>
-      <c r="C200" s="99"/>
-      <c r="D200" s="100"/>
+      <c r="B200" s="105"/>
+      <c r="C200" s="106"/>
+      <c r="D200" s="107"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="98"/>
-      <c r="C201" s="99"/>
-      <c r="D201" s="100"/>
+      <c r="B201" s="105"/>
+      <c r="C201" s="106"/>
+      <c r="D201" s="107"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="98"/>
-      <c r="C202" s="99"/>
-      <c r="D202" s="100"/>
+      <c r="B202" s="105"/>
+      <c r="C202" s="106"/>
+      <c r="D202" s="107"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="98"/>
-      <c r="C203" s="99"/>
-      <c r="D203" s="100"/>
+      <c r="B203" s="105"/>
+      <c r="C203" s="106"/>
+      <c r="D203" s="107"/>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="98"/>
-      <c r="C204" s="99"/>
-      <c r="D204" s="100"/>
+      <c r="B204" s="105"/>
+      <c r="C204" s="106"/>
+      <c r="D204" s="107"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="98"/>
-      <c r="C205" s="99"/>
-      <c r="D205" s="100"/>
+      <c r="B205" s="105"/>
+      <c r="C205" s="106"/>
+      <c r="D205" s="107"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="98"/>
-      <c r="C206" s="99"/>
-      <c r="D206" s="100"/>
+      <c r="B206" s="105"/>
+      <c r="C206" s="106"/>
+      <c r="D206" s="107"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="98"/>
-      <c r="C207" s="99"/>
-      <c r="D207" s="100"/>
+      <c r="B207" s="105"/>
+      <c r="C207" s="106"/>
+      <c r="D207" s="107"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="98"/>
-      <c r="C208" s="99"/>
-      <c r="D208" s="100"/>
+      <c r="B208" s="105"/>
+      <c r="C208" s="106"/>
+      <c r="D208" s="107"/>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="98"/>
-      <c r="C209" s="99"/>
-      <c r="D209" s="100"/>
+      <c r="B209" s="105"/>
+      <c r="C209" s="106"/>
+      <c r="D209" s="107"/>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="98"/>
-      <c r="C210" s="99"/>
-      <c r="D210" s="100"/>
+      <c r="B210" s="105"/>
+      <c r="C210" s="106"/>
+      <c r="D210" s="107"/>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="98"/>
-      <c r="C211" s="99"/>
-      <c r="D211" s="100"/>
+      <c r="B211" s="105"/>
+      <c r="C211" s="106"/>
+      <c r="D211" s="107"/>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="98"/>
-      <c r="C212" s="99"/>
-      <c r="D212" s="100"/>
+      <c r="B212" s="105"/>
+      <c r="C212" s="106"/>
+      <c r="D212" s="107"/>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="98"/>
-      <c r="C213" s="99"/>
-      <c r="D213" s="100"/>
+      <c r="B213" s="105"/>
+      <c r="C213" s="106"/>
+      <c r="D213" s="107"/>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="98"/>
-      <c r="C214" s="99"/>
-      <c r="D214" s="100"/>
+      <c r="B214" s="105"/>
+      <c r="C214" s="106"/>
+      <c r="D214" s="107"/>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="98"/>
-      <c r="C215" s="99"/>
-      <c r="D215" s="100"/>
+      <c r="B215" s="105"/>
+      <c r="C215" s="106"/>
+      <c r="D215" s="107"/>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="98"/>
-      <c r="C216" s="99"/>
-      <c r="D216" s="100"/>
+      <c r="B216" s="105"/>
+      <c r="C216" s="106"/>
+      <c r="D216" s="107"/>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="98"/>
-      <c r="C217" s="99"/>
-      <c r="D217" s="100"/>
+      <c r="B217" s="105"/>
+      <c r="C217" s="106"/>
+      <c r="D217" s="107"/>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="98"/>
-      <c r="C218" s="99"/>
-      <c r="D218" s="100"/>
+      <c r="B218" s="105"/>
+      <c r="C218" s="106"/>
+      <c r="D218" s="107"/>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="98"/>
-      <c r="C219" s="99"/>
-      <c r="D219" s="100"/>
+      <c r="B219" s="105"/>
+      <c r="C219" s="106"/>
+      <c r="D219" s="107"/>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="98"/>
-      <c r="C220" s="99"/>
-      <c r="D220" s="100"/>
+      <c r="B220" s="105"/>
+      <c r="C220" s="106"/>
+      <c r="D220" s="107"/>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="98"/>
-      <c r="C221" s="99"/>
-      <c r="D221" s="100"/>
+      <c r="B221" s="105"/>
+      <c r="C221" s="106"/>
+      <c r="D221" s="107"/>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="98"/>
-      <c r="C222" s="99"/>
-      <c r="D222" s="100"/>
+      <c r="B222" s="105"/>
+      <c r="C222" s="106"/>
+      <c r="D222" s="107"/>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="98"/>
-      <c r="C223" s="99"/>
-      <c r="D223" s="100"/>
+      <c r="B223" s="105"/>
+      <c r="C223" s="106"/>
+      <c r="D223" s="107"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="98"/>
-      <c r="C224" s="99"/>
-      <c r="D224" s="100"/>
+      <c r="B224" s="105"/>
+      <c r="C224" s="106"/>
+      <c r="D224" s="107"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="98"/>
-      <c r="C225" s="99"/>
-      <c r="D225" s="100"/>
+      <c r="B225" s="105"/>
+      <c r="C225" s="106"/>
+      <c r="D225" s="107"/>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="98"/>
-      <c r="C226" s="99"/>
-      <c r="D226" s="100"/>
+      <c r="B226" s="105"/>
+      <c r="C226" s="106"/>
+      <c r="D226" s="107"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="98"/>
-      <c r="C227" s="99"/>
-      <c r="D227" s="100"/>
+      <c r="B227" s="105"/>
+      <c r="C227" s="106"/>
+      <c r="D227" s="107"/>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="98"/>
-      <c r="C228" s="99"/>
-      <c r="D228" s="100"/>
+      <c r="B228" s="105"/>
+      <c r="C228" s="106"/>
+      <c r="D228" s="107"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="98"/>
-      <c r="C229" s="99"/>
-      <c r="D229" s="100"/>
+      <c r="B229" s="105"/>
+      <c r="C229" s="106"/>
+      <c r="D229" s="107"/>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="98"/>
-      <c r="C230" s="99"/>
-      <c r="D230" s="100"/>
+      <c r="B230" s="105"/>
+      <c r="C230" s="106"/>
+      <c r="D230" s="107"/>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="98"/>
-      <c r="C231" s="99"/>
-      <c r="D231" s="100"/>
+      <c r="B231" s="105"/>
+      <c r="C231" s="106"/>
+      <c r="D231" s="107"/>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="98"/>
-      <c r="C232" s="99"/>
-      <c r="D232" s="100"/>
+      <c r="B232" s="105"/>
+      <c r="C232" s="106"/>
+      <c r="D232" s="107"/>
     </row>
     <row r="233" spans="2:4">
-      <c r="B233" s="98"/>
-      <c r="C233" s="99"/>
-      <c r="D233" s="100"/>
+      <c r="B233" s="105"/>
+      <c r="C233" s="106"/>
+      <c r="D233" s="107"/>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="98"/>
-      <c r="C234" s="99"/>
-      <c r="D234" s="100"/>
+      <c r="B234" s="105"/>
+      <c r="C234" s="106"/>
+      <c r="D234" s="107"/>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="98"/>
-      <c r="C235" s="99"/>
-      <c r="D235" s="100"/>
+      <c r="B235" s="105"/>
+      <c r="C235" s="106"/>
+      <c r="D235" s="107"/>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="98"/>
-      <c r="C236" s="99"/>
-      <c r="D236" s="100"/>
+      <c r="B236" s="105"/>
+      <c r="C236" s="106"/>
+      <c r="D236" s="107"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="98"/>
-      <c r="C237" s="99"/>
-      <c r="D237" s="100"/>
+      <c r="B237" s="105"/>
+      <c r="C237" s="106"/>
+      <c r="D237" s="107"/>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" s="98"/>
-      <c r="C238" s="99"/>
-      <c r="D238" s="100"/>
+      <c r="B238" s="105"/>
+      <c r="C238" s="106"/>
+      <c r="D238" s="107"/>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" s="98"/>
-      <c r="C239" s="99"/>
-      <c r="D239" s="100"/>
+      <c r="B239" s="105"/>
+      <c r="C239" s="106"/>
+      <c r="D239" s="107"/>
     </row>
     <row r="240" spans="2:4">
-      <c r="B240" s="98"/>
-      <c r="C240" s="99"/>
-      <c r="D240" s="100"/>
+      <c r="B240" s="105"/>
+      <c r="C240" s="106"/>
+      <c r="D240" s="107"/>
     </row>
     <row r="241" spans="2:4">
-      <c r="B241" s="98"/>
-      <c r="C241" s="99"/>
-      <c r="D241" s="100"/>
+      <c r="B241" s="105"/>
+      <c r="C241" s="106"/>
+      <c r="D241" s="107"/>
     </row>
     <row r="242" spans="2:4">
-      <c r="B242" s="98"/>
-      <c r="C242" s="99"/>
-      <c r="D242" s="100"/>
+      <c r="B242" s="105"/>
+      <c r="C242" s="106"/>
+      <c r="D242" s="107"/>
     </row>
     <row r="243" spans="2:4">
-      <c r="B243" s="98"/>
-      <c r="C243" s="99"/>
-      <c r="D243" s="100"/>
+      <c r="B243" s="105"/>
+      <c r="C243" s="106"/>
+      <c r="D243" s="107"/>
     </row>
     <row r="244" spans="2:4">
-      <c r="B244" s="98"/>
-      <c r="C244" s="99"/>
-      <c r="D244" s="100"/>
+      <c r="B244" s="105"/>
+      <c r="C244" s="106"/>
+      <c r="D244" s="107"/>
     </row>
     <row r="245" spans="2:4">
-      <c r="B245" s="98"/>
-      <c r="C245" s="99"/>
-      <c r="D245" s="100"/>
+      <c r="B245" s="105"/>
+      <c r="C245" s="106"/>
+      <c r="D245" s="107"/>
     </row>
     <row r="246" spans="2:4">
-      <c r="B246" s="98"/>
-      <c r="C246" s="99"/>
-      <c r="D246" s="100"/>
+      <c r="B246" s="105"/>
+      <c r="C246" s="106"/>
+      <c r="D246" s="107"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="98"/>
-      <c r="C247" s="99"/>
-      <c r="D247" s="100"/>
+      <c r="B247" s="105"/>
+      <c r="C247" s="106"/>
+      <c r="D247" s="107"/>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="98"/>
-      <c r="C248" s="99"/>
-      <c r="D248" s="100"/>
+      <c r="B248" s="105"/>
+      <c r="C248" s="106"/>
+      <c r="D248" s="107"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="98"/>
-      <c r="C249" s="99"/>
-      <c r="D249" s="100"/>
+      <c r="B249" s="105"/>
+      <c r="C249" s="106"/>
+      <c r="D249" s="107"/>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="98"/>
-      <c r="C250" s="99"/>
-      <c r="D250" s="100"/>
+      <c r="B250" s="105"/>
+      <c r="C250" s="106"/>
+      <c r="D250" s="107"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="98"/>
-      <c r="C251" s="99"/>
-      <c r="D251" s="100"/>
+      <c r="B251" s="105"/>
+      <c r="C251" s="106"/>
+      <c r="D251" s="107"/>
     </row>
     <row r="252" spans="2:4">
-      <c r="B252" s="98"/>
-      <c r="C252" s="99"/>
-      <c r="D252" s="100"/>
+      <c r="B252" s="105"/>
+      <c r="C252" s="106"/>
+      <c r="D252" s="107"/>
     </row>
     <row r="253" spans="2:4">
-      <c r="B253" s="98"/>
-      <c r="C253" s="99"/>
-      <c r="D253" s="100"/>
+      <c r="B253" s="105"/>
+      <c r="C253" s="106"/>
+      <c r="D253" s="107"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/protected/commands/template/month_more_lirun.xlsx
+++ b/protected/commands/template/month_more_lirun.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="214">
   <si>
     <r>
       <rPr>
@@ -673,7 +673,7 @@
     <t>新生意情況</t>
   </si>
   <si>
-    <t>新(IA,IB)新服務年生意額增長 （(當月-上月)/上月)</t>
+    <t>傳統服務(IA,IB)新生意年金額增長 （(當月-上月)/上月)</t>
   </si>
   <si>
     <t>2(5)</t>
@@ -686,7 +686,7 @@
 &gt; =15%  : 5</t>
   </si>
   <si>
-    <t>新(IA,IB)服務年生意額同比增長 （(當月-去年當月）/去年當月)</t>
+    <t>傳統服務(IA,IB)新生意年金額橫比增長 （(當月-去年當月）/去年當月)</t>
   </si>
   <si>
     <t>20%(3)</t>
@@ -699,7 +699,7 @@
 &gt; =15% : 5</t>
   </si>
   <si>
-    <t>新增(IA,IB)生意合同數目增長（(當月-上月)/上月)</t>
+    <t>傳統服務(IA,IB)新生意合同數量增長（(當月-上月)/上月)</t>
   </si>
   <si>
     <t>-10% ~ -20% : 1
@@ -709,7 +709,7 @@
 &gt; =30% : 5</t>
   </si>
   <si>
-    <t>新(IA,IB)生意合同數目同比增長（(當月-去年當月)/去年當月)</t>
+    <t>傳統服務(IA,IB)新生意合同數量橫比增長（(當月-去年當月)/去年當月)</t>
   </si>
   <si>
     <t>-10% ~ -20% : 1
@@ -719,7 +719,7 @@
 &gt; =30% : 5</t>
   </si>
   <si>
-    <t xml:space="preserve">新業務(飄盈香，甲醛，廚房或其他)新年生意金額增長（(當月-上月)/上月)
+    <t xml:space="preserve">新興業務(空氣淨化機, 飄盈香，甲醛，廚房或其他)新生意年金額增長 （(當月-上月)/上月)
 </t>
   </si>
   <si>
@@ -730,11 +730,11 @@
 &gt;= 150% : 5</t>
   </si>
   <si>
-    <t xml:space="preserve">新興業務(飄盈香，甲醛，廚房或其他)新年生意金額同比增長 （(當月-去年當月)/去年當月)
+    <t xml:space="preserve">新興業務(空氣淨化機,飄盈香，甲醛，廚房或其他)新生意年金額橫比增長 （(當月-去年當月)/去年當月)
 </t>
   </si>
   <si>
-    <t>公司年生意額淨增長比例（（當月-上月）/上月）</t>
+    <t>公司整體生意年金額淨增長比例（（當月-上月）/上月）</t>
   </si>
   <si>
     <t>-10% ~ -20% : 1
@@ -744,7 +744,7 @@
 &gt;= 15% : 5</t>
   </si>
   <si>
-    <t>公司年生意額淨增長同比比例（（當月-去年當月）/去年當月）</t>
+    <t>公司整體生意淨增長年金額橫比比例（（當月-去年當月）/去年當月）</t>
   </si>
   <si>
     <t>-16% ~ -30% : 1
@@ -757,13 +757,7 @@
     <t>生意結構比例</t>
   </si>
   <si>
-    <t>餐飲非餐飲新生意年生意額比例
-20% - 40%           （2：8和3：7之間）
-40% - 70%         （3：7和4：6之間）
-70% - 100%       （4：6和 5：5之間）
-100% - 150%    （5：5 和 6：4之間）
-150% - 230%    （6 ： 4 和 7：3之間）
-&gt;230%                 （7：3以上）</t>
+    <t>餐飲非餐飲年生意額比例</t>
   </si>
   <si>
     <t>20% ~ 39% : 1
@@ -774,13 +768,7 @@
 &gt;= 230% : 1</t>
   </si>
   <si>
-    <t>當月IA, IB年生意額比例
-20% - 40%           （2：8和3：7之間）
-40% - 70%         （3：7和4：6之間）
-70% - 100%       （4：6和 5：5之間）
-100% - 150%    （5：5 和 6：4之間）
-150% - 230%    （6 ： 4 和 7：3之間）
-&gt;230%                 （7：3以上）</t>
+    <t>IA, IB年生意額比例</t>
   </si>
   <si>
     <t>5% ~ 19% : 1
@@ -810,7 +798,7 @@
     <t>技術員生產力</t>
   </si>
   <si>
-    <t>上月技術員平均生意額超出標準門欄比例 （標準：30000/月， 當地平均技術員生意額 - 標準生意額 / 標準生意額 ），主管/主任級別以下技術員</t>
+    <t>上月技術員平均生意額超出標準門欄比例 （標準：130000/月， 當地平均技術員生意額 - 標準生意額 / 標準生意額 ），主管/主任級別以下技術員</t>
   </si>
   <si>
     <t>&gt;=20% : 5
@@ -821,7 +809,7 @@
 &lt; -30% : 0</t>
   </si>
   <si>
-    <t>上月技術員最高生意額技術員金額跟標準比較  （標準：30000/月)</t>
+    <t>上月技術員最高生意額技術員金額跟標準比較  （標準：130000/月)</t>
   </si>
   <si>
     <t>35%(4)</t>
@@ -855,7 +843,7 @@
     </r>
   </si>
   <si>
-    <t>上月技術員最高生意額技術員金額</t>
+    <t>上月技術員最低生意額技術員金額</t>
   </si>
   <si>
     <t>僅供參考，不計算分數</t>
@@ -864,7 +852,7 @@
     <t>技術員成本</t>
   </si>
   <si>
-    <t>技術員用料比例 清潔（技術員IA領貨金額/當月IA生意額）</t>
+    <t>技術員用料比例 清潔（技術員領貨金額/當月生意額）</t>
   </si>
   <si>
     <t>23%(2)</t>
@@ -878,7 +866,7 @@
 &gt;31% : 0</t>
   </si>
   <si>
-    <t>技術員用料比例 滅蟲（技術員IB領貨金額/當月IB生意額）</t>
+    <t>技術員用料比例 滅蟲（技術員領貨金額/當月生意額）</t>
   </si>
   <si>
     <t>15%(2)</t>
@@ -916,7 +904,7 @@
     <t>財政狀況</t>
   </si>
   <si>
-    <t>IA,IB毛利率 （當月IA,IB生意額 - 材料訂購 - 技術員工資）/當月IA,IB生意額</t>
+    <t>毛利率 （當月生意額 - 材料訂購 - 技術員工資）/當月生意額</t>
   </si>
   <si>
     <t>35%(1)</t>
@@ -947,7 +935,7 @@
     <t>利潤狀況</t>
   </si>
   <si>
-    <t>純利率</t>
+    <t>纯利率</t>
   </si>
   <si>
     <t>&lt;4% : 1
@@ -957,24 +945,7 @@
 &gt;=20% : 5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>純利</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跟上月橫比增長</t>
-    </r>
+    <t>纯利跟上月横比增长</t>
   </si>
   <si>
     <t>&gt;=1% : 1
@@ -984,24 +955,7 @@
 &gt;=3% : 5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>純利跟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>去年同比增長</t>
-    </r>
+    <t>纯利跟去年同比增长</t>
   </si>
   <si>
     <t>0~7% : 1
@@ -1053,7 +1007,7 @@
     <t>整體情況</t>
   </si>
   <si>
-    <t>新合同7天內安排首次比例 （成功7天首次客戶數目/整體當月新IA,IB合同數目）</t>
+    <t>新合同7天內安排首次比例 （成功7天首次客戶數目/整體當月新合同數目）</t>
   </si>
   <si>
     <t>88%(3)</t>
@@ -1176,8 +1130,7 @@
     <t>倉庫情況</t>
   </si>
   <si>
-    <t xml:space="preserve">每月盤點準確度
-</t>
+    <t>每月盤點準確度</t>
   </si>
   <si>
     <t>96%(5)</t>
@@ -1278,87 +1231,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新合同5天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>內</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安排安</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>裝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比例 （成功5天安</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>裝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>戶數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目/今月新IA需安裝服務合同數目）</t>
-    </r>
+    <t>新合同5天內安排安裝比例 （成功5天安裝客戶數目/整體當月新合同數目）</t>
   </si>
   <si>
     <t>80%(2)</t>
@@ -1463,7 +1336,7 @@
   </si>
   <si>
     <t>當月質檢客戶數量效率 （跟標準每月客戶拜訪數目比較）
-（估計客戶每個約￥1500/月，當地服務客戶金額/客戶金額估值=客戶約數量，客戶約數量除6（希望每12個月拜訪客戶一次），等於標準每月客戶拜訪數目）</t>
+（估計客戶每個約4000/月，當地服務客戶金額/客戶金額估值=客戶約數量，客戶約數量除6（希望每12個月拜訪客戶一次），等於標準每月客戶拜訪數目）</t>
   </si>
   <si>
     <t>33%(2)</t>
@@ -1637,8 +1510,8 @@
     </r>
   </si>
   <si>
-    <t>隊長跟投訴技術員面談比例 
-（隊長/組長面談客訴技術員數目/客訴數目）</t>
+    <t>主任跟投訴技術員面談比例 
+（主任/組長面談客訴技術員數目/客訴數目）</t>
   </si>
   <si>
     <r>
@@ -1702,178 +1575,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>訪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率 （高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>訪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> = 客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>訴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>後7天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>內電話</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>戶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>訪數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目）
-（高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>訪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>率=高效回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>訪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今月客訴數目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>高效回訪率 （高效回訪 = 客訴後7天內電話客戶回訪數目）
+（高效回訪率=高效回訪/當月解決客訴數目）</t>
+  </si>
+  <si>
+    <t>問題客戶需要主任組長跟進數目</t>
   </si>
   <si>
     <t>人事部</t>
@@ -1929,8 +1635,8 @@
 &gt;16% : 0</t>
   </si>
   <si>
-    <t>隊長數目跟標準比例 （最多每5個技術員，就要有一個隊長的設置) 
-(技術員數目/6=標準隊長數目， 比例 = 隊長數目/標準隊長數目）</t>
+    <t>組長數目跟標準比例 （最多每10個技術員，就要有一個組長的設置) 
+(技術員數目/10=標準組長數目， 比例 = 主管數目/標準主任長數目）</t>
   </si>
   <si>
     <t>&gt;=100% : 5
@@ -1938,8 +1644,8 @@
 &lt;= 80% : 1</t>
   </si>
   <si>
-    <t>組長數目跟標準比例 （最多每30個技術員，就要有一個組長的設置) 
-(技術員數目/30=標準組長數目， 比例 = 組長數目/標準數目）</t>
+    <t>主任數目跟標準比例 （最多每20個技術員，就要有一個主任的設置) 
+(技術員數目/20=標準組長數目， 比例 = 組長數目/標準數目）</t>
   </si>
   <si>
     <t>&gt;=100% : 5
@@ -1961,14 +1667,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2074,10 +1780,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2095,22 +1825,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2123,24 +1854,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2148,7 +1878,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2163,15 +1893,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2208,46 +1943,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2266,12 +1966,6 @@
       <b/>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2320,13 +2014,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2338,31 +2050,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2380,55 +2092,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2452,19 +2164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2476,7 +2176,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2488,13 +2194,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2506,43 +2224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,6 +2402,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2719,17 +2422,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2786,9 +2478,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2821,236 +2515,236 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3069,7 +2763,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -3084,7 +2778,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3096,7 +2790,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3114,10 +2808,10 @@
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3129,13 +2823,13 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3147,7 +2841,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3159,10 +2853,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3171,14 +2865,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3193,9 +2887,9 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3207,25 +2901,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3234,10 +2928,7 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3246,10 +2937,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3258,31 +2949,25 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="14" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="14" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,25 +2976,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3318,19 +3003,22 @@
     <xf numFmtId="179" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="10" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3339,10 +3027,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="14" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3351,16 +3039,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -3369,7 +3054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -3386,10 +3071,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3421,26 +3106,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3816,7 +3501,7 @@
   <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+      <selection activeCell="A1" sqref="$A76:$XFD1048576 I75:XFD75 A75:G75 $A1:$XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4489,7 +4174,7 @@
       <c r="C80" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="108" t="s">
+      <c r="D80" s="105" t="s">
         <v>87</v>
       </c>
       <c r="E80" s="39"/>
@@ -4502,7 +4187,7 @@
       <c r="C81" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="108" t="s">
+      <c r="D81" s="105" t="s">
         <v>90</v>
       </c>
       <c r="E81" s="39"/>
@@ -4515,7 +4200,7 @@
       <c r="C82" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="108" t="s">
+      <c r="D82" s="105" t="s">
         <v>92</v>
       </c>
       <c r="E82" s="39"/>
@@ -4528,7 +4213,7 @@
       <c r="C83" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D83" s="108" t="s">
+      <c r="D83" s="105" t="s">
         <v>94</v>
       </c>
       <c r="E83" s="39"/>
@@ -4541,7 +4226,7 @@
       <c r="C84" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="108" t="s">
+      <c r="D84" s="105" t="s">
         <v>96</v>
       </c>
       <c r="E84" s="39"/>
@@ -4554,7 +4239,7 @@
       <c r="C85" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="108" t="s">
+      <c r="D85" s="105" t="s">
         <v>96</v>
       </c>
       <c r="E85" s="39"/>
@@ -4567,7 +4252,7 @@
       <c r="C86" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="108" t="s">
+      <c r="D86" s="105" t="s">
         <v>99</v>
       </c>
       <c r="E86" s="39"/>
@@ -4580,12 +4265,12 @@
       <c r="C87" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="108" t="s">
+      <c r="D87" s="105" t="s">
         <v>101</v>
       </c>
       <c r="E87" s="39"/>
     </row>
-    <row r="88" s="2" customFormat="1" ht="115.5" spans="1:5">
+    <row r="88" s="2" customFormat="1" ht="90" spans="1:5">
       <c r="A88" s="41" t="s">
         <v>102</v>
       </c>
@@ -4600,7 +4285,7 @@
       </c>
       <c r="E88" s="44"/>
     </row>
-    <row r="89" s="2" customFormat="1" ht="115.5" spans="1:5">
+    <row r="89" s="2" customFormat="1" ht="90" spans="1:5">
       <c r="A89" s="41"/>
       <c r="B89" s="42" t="s">
         <v>105</v>
@@ -4741,114 +4426,114 @@
       <c r="A99" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="61"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="63"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
       <c r="E99" s="50"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="90" spans="1:5">
-      <c r="A100" s="64" t="s">
+      <c r="A100" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="B100" s="65" t="s">
+      <c r="B100" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C100" s="66" t="s">
+      <c r="C100" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D100" s="67" t="s">
+      <c r="D100" s="66" t="s">
         <v>135</v>
       </c>
       <c r="E100" s="39"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="90" spans="1:5">
-      <c r="A101" s="64"/>
-      <c r="B101" s="65" t="s">
+      <c r="A101" s="63"/>
+      <c r="B101" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D101" s="67" t="s">
+      <c r="D101" s="66" t="s">
         <v>138</v>
       </c>
       <c r="E101" s="39"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="101" customHeight="1" spans="1:5">
-      <c r="A102" s="68" t="s">
+      <c r="A102" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="B102" s="69" t="s">
+      <c r="B102" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67" t="s">
+      <c r="C102" s="65"/>
+      <c r="D102" s="66" t="s">
         <v>141</v>
       </c>
       <c r="E102" s="39"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="75" spans="1:5">
-      <c r="A103" s="70"/>
-      <c r="B103" s="71" t="s">
+      <c r="A103" s="68"/>
+      <c r="B103" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="66"/>
-      <c r="D103" s="67" t="s">
+      <c r="C103" s="65"/>
+      <c r="D103" s="66" t="s">
         <v>143</v>
       </c>
       <c r="E103" s="44"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="75" spans="1:5">
-      <c r="A104" s="72"/>
-      <c r="B104" s="71" t="s">
+      <c r="A104" s="69"/>
+      <c r="B104" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="C104" s="66"/>
-      <c r="D104" s="67" t="s">
+      <c r="C104" s="65"/>
+      <c r="D104" s="66" t="s">
         <v>145</v>
       </c>
       <c r="E104" s="39"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="75" spans="1:5">
-      <c r="A105" s="64" t="s">
+      <c r="A105" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B105" s="65" t="s">
+      <c r="B105" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C105" s="73" t="s">
+      <c r="C105" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="D105" s="74" t="s">
+      <c r="D105" s="71" t="s">
         <v>149</v>
       </c>
       <c r="E105" s="44"/>
     </row>
     <row r="106" s="2" customFormat="1" spans="1:5">
-      <c r="A106" s="64"/>
-      <c r="B106" s="75" t="s">
+      <c r="A106" s="63"/>
+      <c r="B106" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="C106" s="73" t="str">
+      <c r="C106" s="70" t="str">
         <f>B29</f>
         <v>上月底公司累計結餘</v>
       </c>
-      <c r="D106" s="76" t="s">
+      <c r="D106" s="73" t="s">
         <v>118</v>
       </c>
       <c r="E106" s="44"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="75" spans="1:5">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="B107" s="75" t="s">
+      <c r="B107" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C107" s="66" t="s">
+      <c r="C107" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D107" s="67" t="s">
+      <c r="D107" s="66" t="s">
         <v>154</v>
       </c>
       <c r="E107" s="39"/>
@@ -4858,967 +4543,967 @@
         <v>155</v>
       </c>
       <c r="B108" s="47"/>
-      <c r="C108" s="77">
+      <c r="C108" s="74">
         <v>11.73</v>
       </c>
-      <c r="D108" s="78"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="50"/>
     </row>
     <row r="109" s="3" customFormat="1" ht="97.5" spans="1:5">
-      <c r="A109" s="79" t="s">
+      <c r="A109" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="B109" s="80" t="s">
+      <c r="B109" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="81" t="s">
+      <c r="C109" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="D109" s="82" t="s">
+      <c r="D109" s="79" t="s">
         <v>159</v>
       </c>
       <c r="E109" s="44"/>
     </row>
     <row r="110" s="3" customFormat="1" ht="97.5" spans="1:5">
-      <c r="A110" s="79" t="s">
+      <c r="A110" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="B110" s="80" t="s">
+      <c r="B110" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="C110" s="81" t="s">
+      <c r="C110" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="82" t="s">
+      <c r="D110" s="79" t="s">
         <v>159</v>
       </c>
       <c r="E110" s="44"/>
     </row>
     <row r="111" s="3" customFormat="1" ht="97.5" spans="1:5">
-      <c r="A111" s="79"/>
-      <c r="B111" s="80" t="s">
+      <c r="A111" s="76"/>
+      <c r="B111" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C111" s="81" t="s">
+      <c r="C111" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="82" t="s">
+      <c r="D111" s="79" t="s">
         <v>159</v>
       </c>
       <c r="E111" s="44"/>
     </row>
     <row r="112" s="3" customFormat="1" ht="33" spans="1:5">
-      <c r="A112" s="79"/>
-      <c r="B112" s="83" t="s">
+      <c r="A112" s="76"/>
+      <c r="B112" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="C112" s="84">
+      <c r="C112" s="81">
         <v>1.43055555555556</v>
       </c>
-      <c r="D112" s="85" t="s">
+      <c r="D112" s="82" t="s">
         <v>118</v>
       </c>
       <c r="E112" s="44"/>
     </row>
     <row r="113" s="3" customFormat="1" ht="97.5" spans="1:5">
-      <c r="A113" s="79" t="s">
+      <c r="A113" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="B113" s="80" t="s">
+      <c r="B113" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="C113" s="86" t="s">
+      <c r="C113" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="D113" s="87" t="s">
+      <c r="D113" s="84" t="s">
         <v>169</v>
       </c>
       <c r="E113" s="44"/>
     </row>
     <row r="114" s="3" customFormat="1" ht="97.5" spans="1:5">
-      <c r="A114" s="79"/>
-      <c r="B114" s="80" t="s">
+      <c r="A114" s="76"/>
+      <c r="B114" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="C114" s="86" t="s">
+      <c r="C114" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="D114" s="82" t="s">
+      <c r="D114" s="79" t="s">
         <v>172</v>
       </c>
       <c r="E114" s="39"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="99" spans="1:5">
-      <c r="A115" s="79" t="s">
+      <c r="A115" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="B115" s="80" t="s">
+      <c r="B115" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="C115" s="81" t="s">
+      <c r="C115" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="D115" s="82" t="s">
+      <c r="D115" s="79" t="s">
         <v>176</v>
       </c>
       <c r="E115" s="39"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="66" spans="1:5">
-      <c r="A116" s="79"/>
-      <c r="B116" s="80" t="s">
+      <c r="A116" s="76"/>
+      <c r="B116" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="C116" s="81" t="s">
+      <c r="C116" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="D116" s="82" t="s">
+      <c r="D116" s="79" t="s">
         <v>179</v>
       </c>
       <c r="E116" s="44"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="33" spans="1:5">
-      <c r="A117" s="79"/>
+      <c r="A117" s="76"/>
       <c r="B117" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="C117" s="81" t="s">
+      <c r="C117" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="D117" s="88" t="s">
+      <c r="D117" s="85" t="s">
         <v>118</v>
       </c>
       <c r="E117" s="44"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="90" spans="1:5">
-      <c r="A118" s="79" t="s">
+      <c r="A118" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B118" s="80" t="s">
+      <c r="B118" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C118" s="81" t="s">
+      <c r="C118" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="D118" s="82" t="s">
+      <c r="D118" s="79" t="s">
         <v>185</v>
       </c>
       <c r="E118" s="39"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="97.5" spans="1:5">
-      <c r="A119" s="79"/>
-      <c r="B119" s="80" t="s">
+      <c r="A119" s="76"/>
+      <c r="B119" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C119" s="81" t="s">
+      <c r="C119" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="D119" s="82" t="s">
+      <c r="D119" s="79" t="s">
         <v>188</v>
       </c>
       <c r="E119" s="44"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="64.5" spans="1:5">
-      <c r="A120" s="79"/>
-      <c r="B120" s="83" t="s">
+      <c r="A120" s="76"/>
+      <c r="B120" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="C120" s="84" t="s">
+      <c r="C120" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="D120" s="82" t="s">
+      <c r="D120" s="79" t="s">
         <v>190</v>
       </c>
       <c r="E120" s="39"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="97.5" spans="1:5">
-      <c r="A121" s="79"/>
-      <c r="B121" s="80" t="s">
+      <c r="A121" s="76"/>
+      <c r="B121" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C121" s="81" t="s">
+      <c r="C121" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="D121" s="82" t="s">
+      <c r="D121" s="79" t="s">
         <v>188</v>
       </c>
       <c r="E121" s="44"/>
     </row>
     <row r="122" s="2" customFormat="1" spans="1:5">
-      <c r="A122" s="79"/>
-      <c r="B122" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C122" s="84">
+      <c r="A122" s="76"/>
+      <c r="B122" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" s="81">
         <v>5</v>
       </c>
-      <c r="D122" s="85" t="s">
+      <c r="D122" s="82" t="s">
         <v>118</v>
       </c>
       <c r="E122" s="44"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:5">
       <c r="A123" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B123" s="47"/>
-      <c r="C123" s="77">
+      <c r="C123" s="74">
         <v>34</v>
       </c>
-      <c r="D123" s="78"/>
+      <c r="D123" s="75"/>
       <c r="E123" s="50"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="60" spans="1:5">
-      <c r="A124" s="89" t="s">
+      <c r="A124" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="C124" s="91" t="s">
+      <c r="B124" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="D124" s="92" t="s">
+      <c r="C124" s="89" t="s">
         <v>195</v>
       </c>
+      <c r="D124" s="90" t="s">
+        <v>196</v>
+      </c>
       <c r="E124" s="39"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="60" spans="1:5">
-      <c r="A125" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="B125" s="90" t="s">
+      <c r="A125" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="C125" s="93" t="s">
+      <c r="B125" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="C125" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="D125" s="94" t="s">
-        <v>198</v>
+      <c r="D125" s="92" t="s">
+        <v>199</v>
       </c>
       <c r="E125" s="39"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="45" spans="1:5">
-      <c r="A126" s="89"/>
-      <c r="B126" s="90" t="s">
+      <c r="A126" s="87"/>
+      <c r="B126" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D126" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="E126" s="44"/>
+    </row>
+    <row r="127" s="2" customFormat="1" ht="60" spans="1:5">
+      <c r="A127" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="E127" s="39"/>
+    </row>
+    <row r="128" s="2" customFormat="1" ht="66" spans="1:5">
+      <c r="A128" s="93"/>
+      <c r="B128" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C128" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="E128" s="44"/>
+    </row>
+    <row r="129" s="2" customFormat="1" ht="66" spans="1:5">
+      <c r="A129" s="93"/>
+      <c r="B129" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C129" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E129" s="44"/>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A130" s="93"/>
+      <c r="B130" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="C130" s="89"/>
+      <c r="D130" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E130" s="44"/>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="60" spans="1:5">
+      <c r="A131" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="B131" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="D131" s="92" t="s">
         <v>199</v>
-      </c>
-      <c r="C126" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="D126" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="E126" s="44"/>
-    </row>
-    <row r="127" s="2" customFormat="1" ht="60" spans="1:5">
-      <c r="A127" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="B127" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="C127" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="D127" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="E127" s="39"/>
-    </row>
-    <row r="128" s="2" customFormat="1" ht="66" spans="1:5">
-      <c r="A128" s="95"/>
-      <c r="B128" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="C128" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="D128" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="E128" s="44"/>
-    </row>
-    <row r="129" s="2" customFormat="1" ht="66" spans="1:5">
-      <c r="A129" s="95"/>
-      <c r="B129" s="96" t="s">
-        <v>208</v>
-      </c>
-      <c r="C129" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="D129" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="E129" s="44"/>
-    </row>
-    <row r="130" s="2" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A130" s="95"/>
-      <c r="B130" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="C130" s="91"/>
-      <c r="D130" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="E130" s="44"/>
-    </row>
-    <row r="131" s="2" customFormat="1" ht="60" spans="1:5">
-      <c r="A131" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="B131" s="100" t="s">
-        <v>212</v>
-      </c>
-      <c r="C131" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="D131" s="94" t="s">
-        <v>198</v>
       </c>
       <c r="E131" s="39"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:4">
       <c r="A132" s="4"/>
-      <c r="B132" s="102"/>
-      <c r="C132" s="103"/>
-      <c r="D132" s="104"/>
+      <c r="B132" s="99"/>
+      <c r="C132" s="100"/>
+      <c r="D132" s="101"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:4">
       <c r="A133" s="4"/>
-      <c r="B133" s="102"/>
-      <c r="C133" s="103"/>
-      <c r="D133" s="104"/>
+      <c r="B133" s="99"/>
+      <c r="C133" s="100"/>
+      <c r="D133" s="101"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:4">
       <c r="A134" s="4"/>
-      <c r="B134" s="102"/>
-      <c r="C134" s="103"/>
-      <c r="D134" s="104"/>
+      <c r="B134" s="99"/>
+      <c r="C134" s="100"/>
+      <c r="D134" s="101"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:4">
       <c r="A135" s="4"/>
-      <c r="B135" s="102"/>
-      <c r="C135" s="103"/>
-      <c r="D135" s="104"/>
+      <c r="B135" s="99"/>
+      <c r="C135" s="100"/>
+      <c r="D135" s="101"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:4">
       <c r="A136" s="4"/>
-      <c r="B136" s="102"/>
-      <c r="C136" s="103"/>
-      <c r="D136" s="104"/>
+      <c r="B136" s="99"/>
+      <c r="C136" s="100"/>
+      <c r="D136" s="101"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:4">
       <c r="A137" s="4"/>
-      <c r="B137" s="102"/>
-      <c r="C137" s="103"/>
-      <c r="D137" s="104"/>
+      <c r="B137" s="99"/>
+      <c r="C137" s="100"/>
+      <c r="D137" s="101"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:4">
       <c r="A138" s="4"/>
-      <c r="B138" s="102"/>
-      <c r="C138" s="103"/>
-      <c r="D138" s="104"/>
+      <c r="B138" s="99"/>
+      <c r="C138" s="100"/>
+      <c r="D138" s="101"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:4">
       <c r="A139" s="4"/>
-      <c r="B139" s="102"/>
-      <c r="C139" s="103"/>
-      <c r="D139" s="104"/>
+      <c r="B139" s="99"/>
+      <c r="C139" s="100"/>
+      <c r="D139" s="101"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:4">
       <c r="A140" s="4"/>
-      <c r="B140" s="102"/>
-      <c r="C140" s="103"/>
-      <c r="D140" s="104"/>
+      <c r="B140" s="99"/>
+      <c r="C140" s="100"/>
+      <c r="D140" s="101"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:4">
       <c r="A141" s="4"/>
-      <c r="B141" s="102"/>
-      <c r="C141" s="103"/>
-      <c r="D141" s="104"/>
+      <c r="B141" s="99"/>
+      <c r="C141" s="100"/>
+      <c r="D141" s="101"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:4">
       <c r="A142" s="4"/>
-      <c r="B142" s="102"/>
-      <c r="C142" s="103"/>
-      <c r="D142" s="104"/>
+      <c r="B142" s="99"/>
+      <c r="C142" s="100"/>
+      <c r="D142" s="101"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:4">
       <c r="A143" s="4"/>
-      <c r="B143" s="102"/>
-      <c r="C143" s="103"/>
-      <c r="D143" s="104"/>
+      <c r="B143" s="99"/>
+      <c r="C143" s="100"/>
+      <c r="D143" s="101"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:4">
       <c r="A144" s="4"/>
-      <c r="B144" s="102"/>
-      <c r="C144" s="103"/>
-      <c r="D144" s="104"/>
+      <c r="B144" s="99"/>
+      <c r="C144" s="100"/>
+      <c r="D144" s="101"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:4">
       <c r="A145" s="4"/>
-      <c r="B145" s="102"/>
-      <c r="C145" s="103"/>
-      <c r="D145" s="104"/>
+      <c r="B145" s="99"/>
+      <c r="C145" s="100"/>
+      <c r="D145" s="101"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:4">
       <c r="A146" s="4"/>
-      <c r="B146" s="102"/>
-      <c r="C146" s="103"/>
-      <c r="D146" s="104"/>
+      <c r="B146" s="99"/>
+      <c r="C146" s="100"/>
+      <c r="D146" s="101"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:4">
       <c r="A147" s="4"/>
-      <c r="B147" s="102"/>
-      <c r="C147" s="103"/>
-      <c r="D147" s="104"/>
+      <c r="B147" s="99"/>
+      <c r="C147" s="100"/>
+      <c r="D147" s="101"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:4">
       <c r="A148" s="4"/>
-      <c r="B148" s="102"/>
-      <c r="C148" s="103"/>
-      <c r="D148" s="104"/>
+      <c r="B148" s="99"/>
+      <c r="C148" s="100"/>
+      <c r="D148" s="101"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:4">
       <c r="A149" s="4"/>
-      <c r="B149" s="102"/>
-      <c r="C149" s="103"/>
-      <c r="D149" s="104"/>
+      <c r="B149" s="99"/>
+      <c r="C149" s="100"/>
+      <c r="D149" s="101"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:4">
       <c r="A150" s="4"/>
-      <c r="B150" s="102"/>
-      <c r="C150" s="103"/>
-      <c r="D150" s="104"/>
+      <c r="B150" s="99"/>
+      <c r="C150" s="100"/>
+      <c r="D150" s="101"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:4">
       <c r="A151" s="4"/>
-      <c r="B151" s="102"/>
-      <c r="C151" s="103"/>
-      <c r="D151" s="104"/>
+      <c r="B151" s="99"/>
+      <c r="C151" s="100"/>
+      <c r="D151" s="101"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:4">
       <c r="A152" s="4"/>
-      <c r="B152" s="102"/>
-      <c r="C152" s="103"/>
-      <c r="D152" s="104"/>
+      <c r="B152" s="99"/>
+      <c r="C152" s="100"/>
+      <c r="D152" s="101"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:4">
       <c r="A153" s="4"/>
-      <c r="B153" s="102"/>
-      <c r="C153" s="103"/>
-      <c r="D153" s="104"/>
+      <c r="B153" s="99"/>
+      <c r="C153" s="100"/>
+      <c r="D153" s="101"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:4">
       <c r="A154" s="4"/>
-      <c r="B154" s="102"/>
-      <c r="C154" s="103"/>
-      <c r="D154" s="104"/>
+      <c r="B154" s="99"/>
+      <c r="C154" s="100"/>
+      <c r="D154" s="101"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:4">
       <c r="A155" s="4"/>
-      <c r="B155" s="102"/>
-      <c r="C155" s="103"/>
-      <c r="D155" s="104"/>
+      <c r="B155" s="99"/>
+      <c r="C155" s="100"/>
+      <c r="D155" s="101"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:4">
       <c r="A156" s="4"/>
-      <c r="B156" s="102"/>
-      <c r="C156" s="103"/>
-      <c r="D156" s="104"/>
+      <c r="B156" s="99"/>
+      <c r="C156" s="100"/>
+      <c r="D156" s="101"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:4">
       <c r="A157" s="4"/>
-      <c r="B157" s="102"/>
-      <c r="C157" s="103"/>
-      <c r="D157" s="104"/>
+      <c r="B157" s="99"/>
+      <c r="C157" s="100"/>
+      <c r="D157" s="101"/>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:4">
       <c r="A158" s="4"/>
-      <c r="B158" s="102"/>
-      <c r="C158" s="103"/>
-      <c r="D158" s="104"/>
+      <c r="B158" s="99"/>
+      <c r="C158" s="100"/>
+      <c r="D158" s="101"/>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:4">
       <c r="A159" s="4"/>
-      <c r="B159" s="102"/>
-      <c r="C159" s="103"/>
-      <c r="D159" s="104"/>
+      <c r="B159" s="99"/>
+      <c r="C159" s="100"/>
+      <c r="D159" s="101"/>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:4">
       <c r="A160" s="4"/>
-      <c r="B160" s="102"/>
-      <c r="C160" s="103"/>
-      <c r="D160" s="104"/>
+      <c r="B160" s="99"/>
+      <c r="C160" s="100"/>
+      <c r="D160" s="101"/>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:4">
       <c r="A161" s="4"/>
-      <c r="B161" s="102"/>
-      <c r="C161" s="103"/>
-      <c r="D161" s="104"/>
+      <c r="B161" s="99"/>
+      <c r="C161" s="100"/>
+      <c r="D161" s="101"/>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:4">
       <c r="A162" s="4"/>
-      <c r="B162" s="102"/>
-      <c r="C162" s="103"/>
-      <c r="D162" s="104"/>
+      <c r="B162" s="99"/>
+      <c r="C162" s="100"/>
+      <c r="D162" s="101"/>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:4">
       <c r="A163" s="4"/>
-      <c r="B163" s="102"/>
-      <c r="C163" s="103"/>
-      <c r="D163" s="104"/>
+      <c r="B163" s="99"/>
+      <c r="C163" s="100"/>
+      <c r="D163" s="101"/>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:4">
       <c r="A164" s="4"/>
-      <c r="B164" s="102"/>
-      <c r="C164" s="103"/>
-      <c r="D164" s="104"/>
+      <c r="B164" s="99"/>
+      <c r="C164" s="100"/>
+      <c r="D164" s="101"/>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="105"/>
-      <c r="C165" s="106"/>
-      <c r="D165" s="107"/>
+      <c r="B165" s="102"/>
+      <c r="C165" s="103"/>
+      <c r="D165" s="104"/>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="105"/>
-      <c r="C166" s="106"/>
-      <c r="D166" s="107"/>
+      <c r="B166" s="102"/>
+      <c r="C166" s="103"/>
+      <c r="D166" s="104"/>
     </row>
     <row r="167" spans="2:4">
-      <c r="B167" s="105"/>
-      <c r="C167" s="106"/>
-      <c r="D167" s="107"/>
+      <c r="B167" s="102"/>
+      <c r="C167" s="103"/>
+      <c r="D167" s="104"/>
     </row>
     <row r="168" spans="2:4">
-      <c r="B168" s="105"/>
-      <c r="C168" s="106"/>
-      <c r="D168" s="107"/>
+      <c r="B168" s="102"/>
+      <c r="C168" s="103"/>
+      <c r="D168" s="104"/>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="105"/>
-      <c r="C169" s="106"/>
-      <c r="D169" s="107"/>
+      <c r="B169" s="102"/>
+      <c r="C169" s="103"/>
+      <c r="D169" s="104"/>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="105"/>
-      <c r="C170" s="106"/>
-      <c r="D170" s="107"/>
+      <c r="B170" s="102"/>
+      <c r="C170" s="103"/>
+      <c r="D170" s="104"/>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="105"/>
-      <c r="C171" s="106"/>
-      <c r="D171" s="107"/>
+      <c r="B171" s="102"/>
+      <c r="C171" s="103"/>
+      <c r="D171" s="104"/>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="105"/>
-      <c r="C172" s="106"/>
-      <c r="D172" s="107"/>
+      <c r="B172" s="102"/>
+      <c r="C172" s="103"/>
+      <c r="D172" s="104"/>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="105"/>
-      <c r="C173" s="106"/>
-      <c r="D173" s="107"/>
+      <c r="B173" s="102"/>
+      <c r="C173" s="103"/>
+      <c r="D173" s="104"/>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="105"/>
-      <c r="C174" s="106"/>
-      <c r="D174" s="107"/>
+      <c r="B174" s="102"/>
+      <c r="C174" s="103"/>
+      <c r="D174" s="104"/>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="105"/>
-      <c r="C175" s="106"/>
-      <c r="D175" s="107"/>
+      <c r="B175" s="102"/>
+      <c r="C175" s="103"/>
+      <c r="D175" s="104"/>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="105"/>
-      <c r="C176" s="106"/>
-      <c r="D176" s="107"/>
+      <c r="B176" s="102"/>
+      <c r="C176" s="103"/>
+      <c r="D176" s="104"/>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="105"/>
-      <c r="C177" s="106"/>
-      <c r="D177" s="107"/>
+      <c r="B177" s="102"/>
+      <c r="C177" s="103"/>
+      <c r="D177" s="104"/>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="105"/>
-      <c r="C178" s="106"/>
-      <c r="D178" s="107"/>
+      <c r="B178" s="102"/>
+      <c r="C178" s="103"/>
+      <c r="D178" s="104"/>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="105"/>
-      <c r="C179" s="106"/>
-      <c r="D179" s="107"/>
+      <c r="B179" s="102"/>
+      <c r="C179" s="103"/>
+      <c r="D179" s="104"/>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="105"/>
-      <c r="C180" s="106"/>
-      <c r="D180" s="107"/>
+      <c r="B180" s="102"/>
+      <c r="C180" s="103"/>
+      <c r="D180" s="104"/>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="105"/>
-      <c r="C181" s="106"/>
-      <c r="D181" s="107"/>
+      <c r="B181" s="102"/>
+      <c r="C181" s="103"/>
+      <c r="D181" s="104"/>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="105"/>
-      <c r="C182" s="106"/>
-      <c r="D182" s="107"/>
+      <c r="B182" s="102"/>
+      <c r="C182" s="103"/>
+      <c r="D182" s="104"/>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="105"/>
-      <c r="C183" s="106"/>
-      <c r="D183" s="107"/>
+      <c r="B183" s="102"/>
+      <c r="C183" s="103"/>
+      <c r="D183" s="104"/>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="105"/>
-      <c r="C184" s="106"/>
-      <c r="D184" s="107"/>
+      <c r="B184" s="102"/>
+      <c r="C184" s="103"/>
+      <c r="D184" s="104"/>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="105"/>
-      <c r="C185" s="106"/>
-      <c r="D185" s="107"/>
+      <c r="B185" s="102"/>
+      <c r="C185" s="103"/>
+      <c r="D185" s="104"/>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="105"/>
-      <c r="C186" s="106"/>
-      <c r="D186" s="107"/>
+      <c r="B186" s="102"/>
+      <c r="C186" s="103"/>
+      <c r="D186" s="104"/>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="105"/>
-      <c r="C187" s="106"/>
-      <c r="D187" s="107"/>
+      <c r="B187" s="102"/>
+      <c r="C187" s="103"/>
+      <c r="D187" s="104"/>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="105"/>
-      <c r="C188" s="106"/>
-      <c r="D188" s="107"/>
+      <c r="B188" s="102"/>
+      <c r="C188" s="103"/>
+      <c r="D188" s="104"/>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="105"/>
-      <c r="C189" s="106"/>
-      <c r="D189" s="107"/>
+      <c r="B189" s="102"/>
+      <c r="C189" s="103"/>
+      <c r="D189" s="104"/>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="105"/>
-      <c r="C190" s="106"/>
-      <c r="D190" s="107"/>
+      <c r="B190" s="102"/>
+      <c r="C190" s="103"/>
+      <c r="D190" s="104"/>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="105"/>
-      <c r="C191" s="106"/>
-      <c r="D191" s="107"/>
+      <c r="B191" s="102"/>
+      <c r="C191" s="103"/>
+      <c r="D191" s="104"/>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="105"/>
-      <c r="C192" s="106"/>
-      <c r="D192" s="107"/>
+      <c r="B192" s="102"/>
+      <c r="C192" s="103"/>
+      <c r="D192" s="104"/>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="105"/>
-      <c r="C193" s="106"/>
-      <c r="D193" s="107"/>
+      <c r="B193" s="102"/>
+      <c r="C193" s="103"/>
+      <c r="D193" s="104"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="105"/>
-      <c r="C194" s="106"/>
-      <c r="D194" s="107"/>
+      <c r="B194" s="102"/>
+      <c r="C194" s="103"/>
+      <c r="D194" s="104"/>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="105"/>
-      <c r="C195" s="106"/>
-      <c r="D195" s="107"/>
+      <c r="B195" s="102"/>
+      <c r="C195" s="103"/>
+      <c r="D195" s="104"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="105"/>
-      <c r="C196" s="106"/>
-      <c r="D196" s="107"/>
+      <c r="B196" s="102"/>
+      <c r="C196" s="103"/>
+      <c r="D196" s="104"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="105"/>
-      <c r="C197" s="106"/>
-      <c r="D197" s="107"/>
+      <c r="B197" s="102"/>
+      <c r="C197" s="103"/>
+      <c r="D197" s="104"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="105"/>
-      <c r="C198" s="106"/>
-      <c r="D198" s="107"/>
+      <c r="B198" s="102"/>
+      <c r="C198" s="103"/>
+      <c r="D198" s="104"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="105"/>
-      <c r="C199" s="106"/>
-      <c r="D199" s="107"/>
+      <c r="B199" s="102"/>
+      <c r="C199" s="103"/>
+      <c r="D199" s="104"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="105"/>
-      <c r="C200" s="106"/>
-      <c r="D200" s="107"/>
+      <c r="B200" s="102"/>
+      <c r="C200" s="103"/>
+      <c r="D200" s="104"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="105"/>
-      <c r="C201" s="106"/>
-      <c r="D201" s="107"/>
+      <c r="B201" s="102"/>
+      <c r="C201" s="103"/>
+      <c r="D201" s="104"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="105"/>
-      <c r="C202" s="106"/>
-      <c r="D202" s="107"/>
+      <c r="B202" s="102"/>
+      <c r="C202" s="103"/>
+      <c r="D202" s="104"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="105"/>
-      <c r="C203" s="106"/>
-      <c r="D203" s="107"/>
+      <c r="B203" s="102"/>
+      <c r="C203" s="103"/>
+      <c r="D203" s="104"/>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="105"/>
-      <c r="C204" s="106"/>
-      <c r="D204" s="107"/>
+      <c r="B204" s="102"/>
+      <c r="C204" s="103"/>
+      <c r="D204" s="104"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="105"/>
-      <c r="C205" s="106"/>
-      <c r="D205" s="107"/>
+      <c r="B205" s="102"/>
+      <c r="C205" s="103"/>
+      <c r="D205" s="104"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="105"/>
-      <c r="C206" s="106"/>
-      <c r="D206" s="107"/>
+      <c r="B206" s="102"/>
+      <c r="C206" s="103"/>
+      <c r="D206" s="104"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="105"/>
-      <c r="C207" s="106"/>
-      <c r="D207" s="107"/>
+      <c r="B207" s="102"/>
+      <c r="C207" s="103"/>
+      <c r="D207" s="104"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="105"/>
-      <c r="C208" s="106"/>
-      <c r="D208" s="107"/>
+      <c r="B208" s="102"/>
+      <c r="C208" s="103"/>
+      <c r="D208" s="104"/>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="105"/>
-      <c r="C209" s="106"/>
-      <c r="D209" s="107"/>
+      <c r="B209" s="102"/>
+      <c r="C209" s="103"/>
+      <c r="D209" s="104"/>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="105"/>
-      <c r="C210" s="106"/>
-      <c r="D210" s="107"/>
+      <c r="B210" s="102"/>
+      <c r="C210" s="103"/>
+      <c r="D210" s="104"/>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="105"/>
-      <c r="C211" s="106"/>
-      <c r="D211" s="107"/>
+      <c r="B211" s="102"/>
+      <c r="C211" s="103"/>
+      <c r="D211" s="104"/>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="105"/>
-      <c r="C212" s="106"/>
-      <c r="D212" s="107"/>
+      <c r="B212" s="102"/>
+      <c r="C212" s="103"/>
+      <c r="D212" s="104"/>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="105"/>
-      <c r="C213" s="106"/>
-      <c r="D213" s="107"/>
+      <c r="B213" s="102"/>
+      <c r="C213" s="103"/>
+      <c r="D213" s="104"/>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="105"/>
-      <c r="C214" s="106"/>
-      <c r="D214" s="107"/>
+      <c r="B214" s="102"/>
+      <c r="C214" s="103"/>
+      <c r="D214" s="104"/>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="105"/>
-      <c r="C215" s="106"/>
-      <c r="D215" s="107"/>
+      <c r="B215" s="102"/>
+      <c r="C215" s="103"/>
+      <c r="D215" s="104"/>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="105"/>
-      <c r="C216" s="106"/>
-      <c r="D216" s="107"/>
+      <c r="B216" s="102"/>
+      <c r="C216" s="103"/>
+      <c r="D216" s="104"/>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="105"/>
-      <c r="C217" s="106"/>
-      <c r="D217" s="107"/>
+      <c r="B217" s="102"/>
+      <c r="C217" s="103"/>
+      <c r="D217" s="104"/>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="105"/>
-      <c r="C218" s="106"/>
-      <c r="D218" s="107"/>
+      <c r="B218" s="102"/>
+      <c r="C218" s="103"/>
+      <c r="D218" s="104"/>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="105"/>
-      <c r="C219" s="106"/>
-      <c r="D219" s="107"/>
+      <c r="B219" s="102"/>
+      <c r="C219" s="103"/>
+      <c r="D219" s="104"/>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="105"/>
-      <c r="C220" s="106"/>
-      <c r="D220" s="107"/>
+      <c r="B220" s="102"/>
+      <c r="C220" s="103"/>
+      <c r="D220" s="104"/>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="105"/>
-      <c r="C221" s="106"/>
-      <c r="D221" s="107"/>
+      <c r="B221" s="102"/>
+      <c r="C221" s="103"/>
+      <c r="D221" s="104"/>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="105"/>
-      <c r="C222" s="106"/>
-      <c r="D222" s="107"/>
+      <c r="B222" s="102"/>
+      <c r="C222" s="103"/>
+      <c r="D222" s="104"/>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="105"/>
-      <c r="C223" s="106"/>
-      <c r="D223" s="107"/>
+      <c r="B223" s="102"/>
+      <c r="C223" s="103"/>
+      <c r="D223" s="104"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="105"/>
-      <c r="C224" s="106"/>
-      <c r="D224" s="107"/>
+      <c r="B224" s="102"/>
+      <c r="C224" s="103"/>
+      <c r="D224" s="104"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="105"/>
-      <c r="C225" s="106"/>
-      <c r="D225" s="107"/>
+      <c r="B225" s="102"/>
+      <c r="C225" s="103"/>
+      <c r="D225" s="104"/>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="105"/>
-      <c r="C226" s="106"/>
-      <c r="D226" s="107"/>
+      <c r="B226" s="102"/>
+      <c r="C226" s="103"/>
+      <c r="D226" s="104"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="105"/>
-      <c r="C227" s="106"/>
-      <c r="D227" s="107"/>
+      <c r="B227" s="102"/>
+      <c r="C227" s="103"/>
+      <c r="D227" s="104"/>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="105"/>
-      <c r="C228" s="106"/>
-      <c r="D228" s="107"/>
+      <c r="B228" s="102"/>
+      <c r="C228" s="103"/>
+      <c r="D228" s="104"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="105"/>
-      <c r="C229" s="106"/>
-      <c r="D229" s="107"/>
+      <c r="B229" s="102"/>
+      <c r="C229" s="103"/>
+      <c r="D229" s="104"/>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="105"/>
-      <c r="C230" s="106"/>
-      <c r="D230" s="107"/>
+      <c r="B230" s="102"/>
+      <c r="C230" s="103"/>
+      <c r="D230" s="104"/>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="105"/>
-      <c r="C231" s="106"/>
-      <c r="D231" s="107"/>
+      <c r="B231" s="102"/>
+      <c r="C231" s="103"/>
+      <c r="D231" s="104"/>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="105"/>
-      <c r="C232" s="106"/>
-      <c r="D232" s="107"/>
+      <c r="B232" s="102"/>
+      <c r="C232" s="103"/>
+      <c r="D232" s="104"/>
     </row>
     <row r="233" spans="2:4">
-      <c r="B233" s="105"/>
-      <c r="C233" s="106"/>
-      <c r="D233" s="107"/>
+      <c r="B233" s="102"/>
+      <c r="C233" s="103"/>
+      <c r="D233" s="104"/>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="105"/>
-      <c r="C234" s="106"/>
-      <c r="D234" s="107"/>
+      <c r="B234" s="102"/>
+      <c r="C234" s="103"/>
+      <c r="D234" s="104"/>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="105"/>
-      <c r="C235" s="106"/>
-      <c r="D235" s="107"/>
+      <c r="B235" s="102"/>
+      <c r="C235" s="103"/>
+      <c r="D235" s="104"/>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="105"/>
-      <c r="C236" s="106"/>
-      <c r="D236" s="107"/>
+      <c r="B236" s="102"/>
+      <c r="C236" s="103"/>
+      <c r="D236" s="104"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="105"/>
-      <c r="C237" s="106"/>
-      <c r="D237" s="107"/>
+      <c r="B237" s="102"/>
+      <c r="C237" s="103"/>
+      <c r="D237" s="104"/>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" s="105"/>
-      <c r="C238" s="106"/>
-      <c r="D238" s="107"/>
+      <c r="B238" s="102"/>
+      <c r="C238" s="103"/>
+      <c r="D238" s="104"/>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" s="105"/>
-      <c r="C239" s="106"/>
-      <c r="D239" s="107"/>
+      <c r="B239" s="102"/>
+      <c r="C239" s="103"/>
+      <c r="D239" s="104"/>
     </row>
     <row r="240" spans="2:4">
-      <c r="B240" s="105"/>
-      <c r="C240" s="106"/>
-      <c r="D240" s="107"/>
+      <c r="B240" s="102"/>
+      <c r="C240" s="103"/>
+      <c r="D240" s="104"/>
     </row>
     <row r="241" spans="2:4">
-      <c r="B241" s="105"/>
-      <c r="C241" s="106"/>
-      <c r="D241" s="107"/>
+      <c r="B241" s="102"/>
+      <c r="C241" s="103"/>
+      <c r="D241" s="104"/>
     </row>
     <row r="242" spans="2:4">
-      <c r="B242" s="105"/>
-      <c r="C242" s="106"/>
-      <c r="D242" s="107"/>
+      <c r="B242" s="102"/>
+      <c r="C242" s="103"/>
+      <c r="D242" s="104"/>
     </row>
     <row r="243" spans="2:4">
-      <c r="B243" s="105"/>
-      <c r="C243" s="106"/>
-      <c r="D243" s="107"/>
+      <c r="B243" s="102"/>
+      <c r="C243" s="103"/>
+      <c r="D243" s="104"/>
     </row>
     <row r="244" spans="2:4">
-      <c r="B244" s="105"/>
-      <c r="C244" s="106"/>
-      <c r="D244" s="107"/>
+      <c r="B244" s="102"/>
+      <c r="C244" s="103"/>
+      <c r="D244" s="104"/>
     </row>
     <row r="245" spans="2:4">
-      <c r="B245" s="105"/>
-      <c r="C245" s="106"/>
-      <c r="D245" s="107"/>
+      <c r="B245" s="102"/>
+      <c r="C245" s="103"/>
+      <c r="D245" s="104"/>
     </row>
     <row r="246" spans="2:4">
-      <c r="B246" s="105"/>
-      <c r="C246" s="106"/>
-      <c r="D246" s="107"/>
+      <c r="B246" s="102"/>
+      <c r="C246" s="103"/>
+      <c r="D246" s="104"/>
     </row>
     <row r="247" spans="2:4">
-      <c r="B247" s="105"/>
-      <c r="C247" s="106"/>
-      <c r="D247" s="107"/>
+      <c r="B247" s="102"/>
+      <c r="C247" s="103"/>
+      <c r="D247" s="104"/>
     </row>
     <row r="248" spans="2:4">
-      <c r="B248" s="105"/>
-      <c r="C248" s="106"/>
-      <c r="D248" s="107"/>
+      <c r="B248" s="102"/>
+      <c r="C248" s="103"/>
+      <c r="D248" s="104"/>
     </row>
     <row r="249" spans="2:4">
-      <c r="B249" s="105"/>
-      <c r="C249" s="106"/>
-      <c r="D249" s="107"/>
+      <c r="B249" s="102"/>
+      <c r="C249" s="103"/>
+      <c r="D249" s="104"/>
     </row>
     <row r="250" spans="2:4">
-      <c r="B250" s="105"/>
-      <c r="C250" s="106"/>
-      <c r="D250" s="107"/>
+      <c r="B250" s="102"/>
+      <c r="C250" s="103"/>
+      <c r="D250" s="104"/>
     </row>
     <row r="251" spans="2:4">
-      <c r="B251" s="105"/>
-      <c r="C251" s="106"/>
-      <c r="D251" s="107"/>
+      <c r="B251" s="102"/>
+      <c r="C251" s="103"/>
+      <c r="D251" s="104"/>
     </row>
     <row r="252" spans="2:4">
-      <c r="B252" s="105"/>
-      <c r="C252" s="106"/>
-      <c r="D252" s="107"/>
+      <c r="B252" s="102"/>
+      <c r="C252" s="103"/>
+      <c r="D252" s="104"/>
     </row>
     <row r="253" spans="2:4">
-      <c r="B253" s="105"/>
-      <c r="C253" s="106"/>
-      <c r="D253" s="107"/>
+      <c r="B253" s="102"/>
+      <c r="C253" s="103"/>
+      <c r="D253" s="104"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/protected/commands/template/month_more_lirun.xlsx
+++ b/protected/commands/template/month_more_lirun.xlsx
@@ -852,7 +852,7 @@
     <t>技術員成本</t>
   </si>
   <si>
-    <t>技術員用料比例 清潔（技術員領貨金額/當月生意額）</t>
+    <t>技術員用料比例 清潔（技術員領貨金額/當月IA生意額）</t>
   </si>
   <si>
     <t>23%(2)</t>
@@ -866,7 +866,7 @@
 &gt;31% : 0</t>
   </si>
   <si>
-    <t>技術員用料比例 滅蟲（技術員領貨金額/當月生意額）</t>
+    <t>技術員用料比例 滅蟲（技術員領貨金額/當月IB生意額）</t>
   </si>
   <si>
     <t>15%(2)</t>
@@ -904,7 +904,7 @@
     <t>財政狀況</t>
   </si>
   <si>
-    <t>毛利率 （當月生意額 - 材料訂購 - 技術員工資）/當月生意額</t>
+    <t>IA,IB毛利率 （當月生意額 - 材料訂購 - 技術員工資）/當月IA,IB生意額</t>
   </si>
   <si>
     <t>35%(1)</t>
@@ -1667,12 +1667,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1780,36 +1780,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1825,23 +1795,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1854,23 +1823,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1878,7 +1848,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1893,20 +1863,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1943,11 +1908,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2014,19 +2014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2038,43 +2044,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,55 +2074,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,7 +2146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,7 +2170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2188,7 +2194,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2200,43 +2236,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,15 +2402,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2422,6 +2413,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2478,11 +2480,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="62"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2515,205 +2515,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2725,22 +2725,22 @@
     <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2763,10 +2763,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1">
@@ -2778,7 +2778,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2790,10 +2790,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,13 +2805,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2820,19 +2820,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2841,7 +2841,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2856,10 +2856,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2874,7 +2874,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2889,10 +2889,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2904,34 +2904,34 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2940,10 +2940,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2955,22 +2955,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2979,28 +2979,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3012,16 +3012,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3030,37 +3030,37 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3071,10 +3071,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3106,26 +3106,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3500,8 +3500,8 @@
   <sheetPr/>
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A76:$XFD1048576 I75:XFD75 A75:G75 $A1:$XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
